--- a/Abnormality of the digestive system_v1.0.xlsx
+++ b/Abnormality of the digestive system_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doieisuke/Desktop/BLAH8_HPO_まとめPhenoAb_hpo 2/Done/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F890D15-F88A-1F43-B4CA-6E287C1E5CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929BCD66-DFA5-AD40-8DD3-A6AB271FFA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33700" yWindow="1440" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="988">
   <si>
     <t>orig_entry</t>
   </si>
@@ -1514,6 +1514,1458 @@
   </si>
   <si>
     <t>Reduced fecal osmolality</t>
+  </si>
+  <si>
+    <t>膀胱外反症</t>
+  </si>
+  <si>
+    <t>部分的腹筋無力症</t>
+  </si>
+  <si>
+    <t>腹壁筋の形成不全</t>
+  </si>
+  <si>
+    <t>腹壁筋低形成</t>
+  </si>
+  <si>
+    <t>直腸拡張症</t>
+  </si>
+  <si>
+    <t>臍上方位</t>
+  </si>
+  <si>
+    <t>下方に位置する臍</t>
+  </si>
+  <si>
+    <t>低形成臍</t>
+  </si>
+  <si>
+    <t>ロゼンジ型臍</t>
+  </si>
+  <si>
+    <t>臍ヘルニア</t>
+  </si>
+  <si>
+    <t>突出した臍</t>
+  </si>
+  <si>
+    <t>プルーン腹</t>
+  </si>
+  <si>
+    <t>胃瘻</t>
+  </si>
+  <si>
+    <t>胸腹部偶発症</t>
+  </si>
+  <si>
+    <t>切開ヘルニア</t>
+  </si>
+  <si>
+    <t>肘頭ヘルニア</t>
+  </si>
+  <si>
+    <t>腹側ヘルニア</t>
+  </si>
+  <si>
+    <t>大腿ヘルニア</t>
+  </si>
+  <si>
+    <t>鼠径ヘルニア</t>
+  </si>
+  <si>
+    <t>持続性臍ヘルニア</t>
+  </si>
+  <si>
+    <t>余剰臍皮膚</t>
+  </si>
+  <si>
+    <t>気管食道瘻</t>
+  </si>
+  <si>
+    <t>食道滲出液</t>
+  </si>
+  <si>
+    <t>食道溝</t>
+  </si>
+  <si>
+    <t>食道腸管神経叢変性症</t>
+  </si>
+  <si>
+    <t>食道狭窄</t>
+  </si>
+  <si>
+    <t>食道静脈瘤</t>
+  </si>
+  <si>
+    <t>食道食物の圧入</t>
+  </si>
+  <si>
+    <t>食道重複症</t>
+  </si>
+  <si>
+    <t>食道白板症</t>
+  </si>
+  <si>
+    <t>食道扁平上皮乳頭腫</t>
+  </si>
+  <si>
+    <t>食道癌</t>
+  </si>
+  <si>
+    <t>バレット食道</t>
+  </si>
+  <si>
+    <t>食道の好酸球浸潤</t>
+  </si>
+  <si>
+    <t>食道の好酸球性微小膿瘍形成</t>
+  </si>
+  <si>
+    <t>食道ウェブ</t>
+  </si>
+  <si>
+    <t>食道憩室</t>
+  </si>
+  <si>
+    <t>食道潰瘍</t>
+  </si>
+  <si>
+    <t>食道閉塞</t>
+  </si>
+  <si>
+    <t>食道近位部閉鎖症</t>
+  </si>
+  <si>
+    <t>自然食道穿孔</t>
+  </si>
+  <si>
+    <t>Mallory-Weiss裂傷</t>
+  </si>
+  <si>
+    <t>急性食道壊死</t>
+  </si>
+  <si>
+    <t>好酸球性胆嚢浸潤</t>
+  </si>
+  <si>
+    <t>好酸球性肝浸潤</t>
+  </si>
+  <si>
+    <t>胃粘膜好酸球浸潤</t>
+  </si>
+  <si>
+    <t>大腸好酸球増多</t>
+  </si>
+  <si>
+    <t>好酸球性腹水</t>
+  </si>
+  <si>
+    <t>重複結腸</t>
+  </si>
+  <si>
+    <t>胃重複</t>
+  </si>
+  <si>
+    <t>消化管血管異形成</t>
+  </si>
+  <si>
+    <t>消化管毛細血管拡張症</t>
+  </si>
+  <si>
+    <t>直腸動静脈奇形</t>
+  </si>
+  <si>
+    <t>十二指腸動静脈奇形</t>
+  </si>
+  <si>
+    <t>大腸動静脈奇形</t>
+  </si>
+  <si>
+    <t>空腸動静脈奇形</t>
+  </si>
+  <si>
+    <t>胃動静脈奇形</t>
+  </si>
+  <si>
+    <t>腸リンパ浮腫</t>
+  </si>
+  <si>
+    <t>腸リンパ節過形成</t>
+  </si>
+  <si>
+    <t>線維化した固有筋層</t>
+  </si>
+  <si>
+    <t>筋固有層の異常積層</t>
+  </si>
+  <si>
+    <t>萎縮性筋前膜</t>
+  </si>
+  <si>
+    <t>炎症性被膜ポリープ</t>
+  </si>
+  <si>
+    <t>鋸歯状腸ポリープ</t>
+  </si>
+  <si>
+    <t>不連続性腸ポリープ</t>
+  </si>
+  <si>
+    <t>十二指腸ポリープ症</t>
+  </si>
+  <si>
+    <t>直腸ポリープ症</t>
+  </si>
+  <si>
+    <t>腺腫性大腸ポリポーシス</t>
+  </si>
+  <si>
+    <t>大腸ポリポーシス</t>
+  </si>
+  <si>
+    <t>若年性大腸ポリポーシス</t>
+  </si>
+  <si>
+    <t>過形成性大腸ポリポーシス</t>
+  </si>
+  <si>
+    <t>小腸ポリープ</t>
+  </si>
+  <si>
+    <t>過誤腫性胃ポリープ</t>
+  </si>
+  <si>
+    <t>若年性消化管ポリープ症</t>
+  </si>
+  <si>
+    <t>回腸腸重積症</t>
+  </si>
+  <si>
+    <t>十二指腸閉鎖症</t>
+  </si>
+  <si>
+    <t>直腸閉鎖症</t>
+  </si>
+  <si>
+    <t>多発性小腸閉鎖症</t>
+  </si>
+  <si>
+    <t>回腸遠位部閉鎖症</t>
+  </si>
+  <si>
+    <t>大腸閉鎖症</t>
+  </si>
+  <si>
+    <t>空腸閉鎖症</t>
+  </si>
+  <si>
+    <t>腸瘻</t>
+  </si>
+  <si>
+    <t>非腸瘻</t>
+  </si>
+  <si>
+    <t>結腸瘻</t>
+  </si>
+  <si>
+    <t>直腸瘻</t>
+  </si>
+  <si>
+    <t>H型直腸前庭瘻</t>
+  </si>
+  <si>
+    <t>直腸膣瘻</t>
+  </si>
+  <si>
+    <t>小腸無力症</t>
+  </si>
+  <si>
+    <t>十二指腸潰瘍</t>
+  </si>
+  <si>
+    <t>空腸炎</t>
+  </si>
+  <si>
+    <t>蛋白喪失性腸症</t>
+  </si>
+  <si>
+    <t>壊死性回腸炎</t>
+  </si>
+  <si>
+    <t>回腸潰瘍</t>
+  </si>
+  <si>
+    <t>回盲部潰瘍</t>
+  </si>
+  <si>
+    <t>メッケル憩室</t>
+  </si>
+  <si>
+    <t>セリアック病</t>
+  </si>
+  <si>
+    <t>微小乳頭封入体</t>
+  </si>
+  <si>
+    <t>絨毛萎縮</t>
+  </si>
+  <si>
+    <t>微小絨毛PAS陽性分泌顆粒</t>
+  </si>
+  <si>
+    <t>小腸出血</t>
+  </si>
+  <si>
+    <t>小腸の回旋異常</t>
+  </si>
+  <si>
+    <t>小腸低形成</t>
+  </si>
+  <si>
+    <t>十二指腸憩室</t>
+  </si>
+  <si>
+    <t>空腸憩室</t>
+  </si>
+  <si>
+    <t>小腸粘膜ラクターゼ値低下</t>
+  </si>
+  <si>
+    <t>先天性小腸短縮症</t>
+  </si>
+  <si>
+    <t>小腸運動障害</t>
+  </si>
+  <si>
+    <t>十二指腸胃形質転換</t>
+  </si>
+  <si>
+    <t>十二指腸萎縮</t>
+  </si>
+  <si>
+    <t>十二指腸炎</t>
+  </si>
+  <si>
+    <t>巨大十二指腸</t>
+  </si>
+  <si>
+    <t>十二指腸狭窄</t>
+  </si>
+  <si>
+    <t>腹痛</t>
+  </si>
+  <si>
+    <t>小腸細菌過剰増殖</t>
+  </si>
+  <si>
+    <t>腸リンパ管拡張症</t>
+  </si>
+  <si>
+    <t>新生児腸閉塞</t>
+  </si>
+  <si>
+    <t>麻痺性イレウス</t>
+  </si>
+  <si>
+    <t>メコニウム性イレウス</t>
+  </si>
+  <si>
+    <t>高位腸閉塞</t>
+  </si>
+  <si>
+    <t>腸捻転</t>
+  </si>
+  <si>
+    <t>低形成結腸</t>
+  </si>
+  <si>
+    <t>微小結腸</t>
+  </si>
+  <si>
+    <t>形成不全結腸</t>
+  </si>
+  <si>
+    <t>大腸憩室</t>
+  </si>
+  <si>
+    <t>全腸捻転</t>
+  </si>
+  <si>
+    <t>十二指腸血管異栄養症</t>
+  </si>
+  <si>
+    <t>ガングリオン尿腫症</t>
+  </si>
+  <si>
+    <t>低ガングリオン症</t>
+  </si>
+  <si>
+    <t>短区間無神経節性巨大結腸</t>
+  </si>
+  <si>
+    <t>全大腸無神経節性巨大結腸</t>
+  </si>
+  <si>
+    <t>長節性無神経節性巨大結腸</t>
+  </si>
+  <si>
+    <t>腸管神経内核内封入体</t>
+  </si>
+  <si>
+    <t>腸神経変性症</t>
+  </si>
+  <si>
+    <t>結腸の回旋異常</t>
+  </si>
+  <si>
+    <t>中腸奇形</t>
+  </si>
+  <si>
+    <t>先天性袋状結腸</t>
+  </si>
+  <si>
+    <t>ステルコーラル潰瘍</t>
+  </si>
+  <si>
+    <t>大腸狭窄</t>
+  </si>
+  <si>
+    <t>結腸癌</t>
+  </si>
+  <si>
+    <t>結腸腺癌</t>
+  </si>
+  <si>
+    <t>肛門管扁平上皮がん</t>
+  </si>
+  <si>
+    <t>肛門管腺がん</t>
+  </si>
+  <si>
+    <t>遺伝性非ポリポーシス大腸がん</t>
+  </si>
+  <si>
+    <t>大腸粘膜のリンパ球浸潤</t>
+  </si>
+  <si>
+    <t>巨大肛門</t>
+  </si>
+  <si>
+    <t>直腸膿瘍</t>
+  </si>
+  <si>
+    <t>痔核</t>
+  </si>
+  <si>
+    <t>直腸瘤</t>
+  </si>
+  <si>
+    <t>肛門膿瘍</t>
+  </si>
+  <si>
+    <t>大腸静脈瘤</t>
+  </si>
+  <si>
+    <t>リンパ節性過形成</t>
+  </si>
+  <si>
+    <t>限局性活動性大腸炎</t>
+  </si>
+  <si>
+    <t>壊死性腸炎</t>
+  </si>
+  <si>
+    <t>急性大腸炎</t>
+  </si>
+  <si>
+    <t>膵炎</t>
+  </si>
+  <si>
+    <t>潰瘍性大腸炎</t>
+  </si>
+  <si>
+    <t>結腸穿孔</t>
+  </si>
+  <si>
+    <t>直腸穿孔</t>
+  </si>
+  <si>
+    <t>小腸穿孔</t>
+  </si>
+  <si>
+    <t>多発性腸神経線維腫症</t>
+  </si>
+  <si>
+    <t>腸管偽閉塞</t>
+  </si>
+  <si>
+    <t>乳糖不耐症</t>
+  </si>
+  <si>
+    <t>でんぷん不耐症</t>
+  </si>
+  <si>
+    <t>胃静脈瘤</t>
+  </si>
+  <si>
+    <t>胃の位置異常</t>
+  </si>
+  <si>
+    <t>胃潰瘍</t>
+  </si>
+  <si>
+    <t>萎縮性胃炎</t>
+  </si>
+  <si>
+    <t>慢性胃炎</t>
+  </si>
+  <si>
+    <t>巨大肥厚性胃炎</t>
+  </si>
+  <si>
+    <t>胃憩室</t>
+  </si>
+  <si>
+    <t>内因性因子欠乏</t>
+  </si>
+  <si>
+    <t>胃黄色腫</t>
+  </si>
+  <si>
+    <t>先天性幽門閉鎖症</t>
+  </si>
+  <si>
+    <t>幽門狭窄</t>
+  </si>
+  <si>
+    <t>裂孔ヘルニア</t>
+  </si>
+  <si>
+    <t>微小胃症</t>
+  </si>
+  <si>
+    <t>胃肥大症</t>
+  </si>
+  <si>
+    <t>胃平滑筋肉腫</t>
+  </si>
+  <si>
+    <t>胃底腺ポリープ症</t>
+  </si>
+  <si>
+    <t>多発性胃ポリープ</t>
+  </si>
+  <si>
+    <t>胃腺癌</t>
+  </si>
+  <si>
+    <t>胃がん</t>
+  </si>
+  <si>
+    <t>胃リンパ腫</t>
+  </si>
+  <si>
+    <t>肛門粘膜白板症</t>
+  </si>
+  <si>
+    <t>肛門縁扁平上皮がん</t>
+  </si>
+  <si>
+    <t>肛門縁パジェット病</t>
+  </si>
+  <si>
+    <t>肛門縁基底細胞腫</t>
+  </si>
+  <si>
+    <t>肛門縁黒色腫</t>
+  </si>
+  <si>
+    <t>肛門裂孔</t>
+  </si>
+  <si>
+    <t>肛門周囲膿瘍</t>
+  </si>
+  <si>
+    <t>肛門後方</t>
+  </si>
+  <si>
+    <t>前方肛門</t>
+  </si>
+  <si>
+    <t>肛門閉鎖症</t>
+  </si>
+  <si>
+    <t>肛門狭窄</t>
+  </si>
+  <si>
+    <t>肛門周囲皮膚炎</t>
+  </si>
+  <si>
+    <t>肛門上皮内新生物</t>
+  </si>
+  <si>
+    <t>良性消化管腫瘍</t>
+  </si>
+  <si>
+    <t>ゾリンジャー・エリソン症候群</t>
+  </si>
+  <si>
+    <t>消化管間質腫瘍</t>
+  </si>
+  <si>
+    <t>腸カルチノイド</t>
+  </si>
+  <si>
+    <t>肝芽腫</t>
+  </si>
+  <si>
+    <t>肝細胞がん</t>
+  </si>
+  <si>
+    <t>肝病巣性結節性過形成</t>
+  </si>
+  <si>
+    <t>肝ハマルトーマ</t>
+  </si>
+  <si>
+    <t>肝平滑筋腫</t>
+  </si>
+  <si>
+    <t>肝細胞腺腫</t>
+  </si>
+  <si>
+    <t>肝血管腫</t>
+  </si>
+  <si>
+    <t>原発性腹膜がん</t>
+  </si>
+  <si>
+    <t>Vater膨大部がん</t>
+  </si>
+  <si>
+    <t>空腸腺がん</t>
+  </si>
+  <si>
+    <t>十二指腸腺がん</t>
+  </si>
+  <si>
+    <t>回腸腺がん</t>
+  </si>
+  <si>
+    <t>多発性胆道過誤腫</t>
+  </si>
+  <si>
+    <t>胆嚢の新生物</t>
+  </si>
+  <si>
+    <t>胆管がん</t>
+  </si>
+  <si>
+    <t>小腸カルチノイド</t>
+  </si>
+  <si>
+    <t>デスモイド腫瘍</t>
+  </si>
+  <si>
+    <t>腸炎</t>
+  </si>
+  <si>
+    <t>クローン病</t>
+  </si>
+  <si>
+    <t>クロストリジウム・ディフィシル大腸炎</t>
+  </si>
+  <si>
+    <t>クロストリジウム・ディフィシル腸炎</t>
+  </si>
+  <si>
+    <t>無塩素症</t>
+  </si>
+  <si>
+    <t>食道痙攣</t>
+  </si>
+  <si>
+    <t>胃食道逆流症</t>
+  </si>
+  <si>
+    <t>アカラシア</t>
+  </si>
+  <si>
+    <t>仮性球麻痺</t>
+  </si>
+  <si>
+    <t>経口ボーラス形成障害</t>
+  </si>
+  <si>
+    <t>口腔咽頭嚥下障害</t>
+  </si>
+  <si>
+    <t>口腔咽頭嚥下反応障害</t>
+  </si>
+  <si>
+    <t>神経筋性嚥下障害</t>
+  </si>
+  <si>
+    <t>血便</t>
+  </si>
+  <si>
+    <t>コーヒー挽き割り嘔吐</t>
+  </si>
+  <si>
+    <t>メレナ</t>
+  </si>
+  <si>
+    <t>吐血</t>
+  </si>
+  <si>
+    <t>蠕動亢進</t>
+  </si>
+  <si>
+    <t>腸通過時間の減少</t>
+  </si>
+  <si>
+    <t>腸通過時間の増加</t>
+  </si>
+  <si>
+    <t>ヘリコバクター・ピロリ感染</t>
+  </si>
+  <si>
+    <t>再発性胃腸炎</t>
+  </si>
+  <si>
+    <t>ランブル鞭毛虫の頻繁な感染</t>
+  </si>
+  <si>
+    <t>機能性腸閉塞</t>
+  </si>
+  <si>
+    <t>消化管梗塞</t>
+  </si>
+  <si>
+    <t>嚥下障害</t>
+  </si>
+  <si>
+    <t>腹部無菌性膿瘍</t>
+  </si>
+  <si>
+    <t>変動性肝腫大</t>
+  </si>
+  <si>
+    <t>肝脾腫</t>
+  </si>
+  <si>
+    <t>変動性脾腫</t>
+  </si>
+  <si>
+    <t>嚢胞</t>
+  </si>
+  <si>
+    <t>内臓の重複</t>
+  </si>
+  <si>
+    <t>胎児腹水</t>
+  </si>
+  <si>
+    <t>限局性腹水</t>
+  </si>
+  <si>
+    <t>胆汁性腹水</t>
+  </si>
+  <si>
+    <t>腹部癒着</t>
+  </si>
+  <si>
+    <t>骨盤瘤</t>
+  </si>
+  <si>
+    <t>腹部腫瘤</t>
+  </si>
+  <si>
+    <t>静脈栄養への依存</t>
+  </si>
+  <si>
+    <t>肝組織におけるミトコンドリア複合体III活性の低下</t>
+  </si>
+  <si>
+    <t>ライ症候群様エピソード</t>
+  </si>
+  <si>
+    <t>乳児期の致命的肝不全</t>
+  </si>
+  <si>
+    <t>慢性肝不全</t>
+  </si>
+  <si>
+    <t>劇症肝炎</t>
+  </si>
+  <si>
+    <t>胃下垂</t>
+  </si>
+  <si>
+    <t>便秘</t>
+  </si>
+  <si>
+    <t>テネスムス</t>
+  </si>
+  <si>
+    <t>腸の切迫感</t>
+  </si>
+  <si>
+    <t>大腸慣性</t>
+  </si>
+  <si>
+    <t>腸過敏症</t>
+  </si>
+  <si>
+    <t>鼓腸</t>
+  </si>
+  <si>
+    <t>慢性便秘</t>
+  </si>
+  <si>
+    <t>急性便秘</t>
+  </si>
+  <si>
+    <t>食後膨満感</t>
+  </si>
+  <si>
+    <t>舟状腹</t>
+  </si>
+  <si>
+    <t>エピソード性嘔吐</t>
+  </si>
+  <si>
+    <t>投射性嘔吐</t>
+  </si>
+  <si>
+    <t>糞便性嘔吐</t>
+  </si>
+  <si>
+    <t>吐き気</t>
+  </si>
+  <si>
+    <t>非経口栄養への依存</t>
+  </si>
+  <si>
+    <t>乳児期の胃空腸経管栄養</t>
+  </si>
+  <si>
+    <t>鼻からの逆流</t>
+  </si>
+  <si>
+    <t>哺乳不良</t>
+  </si>
+  <si>
+    <t>乳児期の経鼻胃管栄養</t>
+  </si>
+  <si>
+    <t>乳児期の胃瘻チューブ栄養</t>
+  </si>
+  <si>
+    <t>幼児期の自力哺乳の遅れ</t>
+  </si>
+  <si>
+    <t>経鼻胃管栄養</t>
+  </si>
+  <si>
+    <t>食欲不振</t>
+  </si>
+  <si>
+    <t>早期の満腹感</t>
+  </si>
+  <si>
+    <t>腹部の隆起</t>
+  </si>
+  <si>
+    <t>難治性下痢</t>
+  </si>
+  <si>
+    <t>慢性下痢</t>
+  </si>
+  <si>
+    <t>分泌性下痢</t>
+  </si>
+  <si>
+    <t>血性粘液性下痢</t>
+  </si>
+  <si>
+    <t>間欠性下痢</t>
+  </si>
+  <si>
+    <t>浸透圧性下痢</t>
+  </si>
+  <si>
+    <t>粘液性下痢</t>
+  </si>
+  <si>
+    <t>遷延性下痢</t>
+  </si>
+  <si>
+    <t>腹部硬直</t>
+  </si>
+  <si>
+    <t>腹部けいれん</t>
+  </si>
+  <si>
+    <t>消化不良</t>
+  </si>
+  <si>
+    <t>腹部疝痛</t>
+  </si>
+  <si>
+    <t>腹部固縮</t>
+  </si>
+  <si>
+    <t>エピソード性腹痛</t>
+  </si>
+  <si>
+    <t>急性腹症</t>
+  </si>
+  <si>
+    <t>栄養不良</t>
+  </si>
+  <si>
+    <t>高活性腸音</t>
+  </si>
+  <si>
+    <t>低活性腸音</t>
+  </si>
+  <si>
+    <t>腸音の欠如</t>
+  </si>
+  <si>
+    <t>タンパク質回避</t>
+  </si>
+  <si>
+    <t>脾機能低下症</t>
+  </si>
+  <si>
+    <t>低形成脾臓</t>
+  </si>
+  <si>
+    <t>多巣性脾膿瘍</t>
+  </si>
+  <si>
+    <t>単房性脾臓膿瘍</t>
+  </si>
+  <si>
+    <t>脾臓の異所性</t>
+  </si>
+  <si>
+    <t>脾膵癒合</t>
+  </si>
+  <si>
+    <t>多葉脾臓</t>
+  </si>
+  <si>
+    <t>脾門融合</t>
+  </si>
+  <si>
+    <t>脾梗塞</t>
+  </si>
+  <si>
+    <t>付属脾臓</t>
+  </si>
+  <si>
+    <t>多脾症</t>
+  </si>
+  <si>
+    <t>脾嚢胞</t>
+  </si>
+  <si>
+    <t>脾破裂</t>
+  </si>
+  <si>
+    <t>腹部逆位</t>
+  </si>
+  <si>
+    <t>腸間膜嚢胞</t>
+  </si>
+  <si>
+    <t>腹膜中皮腫</t>
+  </si>
+  <si>
+    <t>滲出性黄疸を伴う肝内胆汁うっ滞症</t>
+  </si>
+  <si>
+    <t>肝嚢胞</t>
+  </si>
+  <si>
+    <t>多嚢胞性肝疾患</t>
+  </si>
+  <si>
+    <t>非定型または遷延性肝炎</t>
+  </si>
+  <si>
+    <t>巨大細胞性肝炎</t>
+  </si>
+  <si>
+    <t>急性肝炎</t>
+  </si>
+  <si>
+    <t>界面肝炎</t>
+  </si>
+  <si>
+    <t>亜急性進行性ウイルス性肝炎</t>
+  </si>
+  <si>
+    <t>腸管ウイルス性肝炎</t>
+  </si>
+  <si>
+    <t>慢性活動性肝炎</t>
+  </si>
+  <si>
+    <t>クリプトスポリジウム感染による慢性肝炎</t>
+  </si>
+  <si>
+    <t>肝エコー原性の上昇</t>
+  </si>
+  <si>
+    <t>肝エコー原性の低下</t>
+  </si>
+  <si>
+    <t>肝エコテクスチャーの粗大化</t>
+  </si>
+  <si>
+    <t>肝超音波検査での星空様所見</t>
+  </si>
+  <si>
+    <t>肝細胞脂質滴の増加</t>
+  </si>
+  <si>
+    <t>小胞状肝脂肪症</t>
+  </si>
+  <si>
+    <t>巨小胞性肝脂肪症</t>
+  </si>
+  <si>
+    <t>急性肝脂肪症</t>
+  </si>
+  <si>
+    <t>びまん性肝脂肪症</t>
+  </si>
+  <si>
+    <t>変性肝疾患</t>
+  </si>
+  <si>
+    <t>肝カルニチン濃度低下</t>
+  </si>
+  <si>
+    <t>肝不全</t>
+  </si>
+  <si>
+    <t>分節性肝低形成</t>
+  </si>
+  <si>
+    <t>異所性肝</t>
+  </si>
+  <si>
+    <t>肝臓のミトコンドリアDNAの枯渇</t>
+  </si>
+  <si>
+    <t>肝臓の結節性再生性過形成</t>
+  </si>
+  <si>
+    <t>肝梗塞</t>
+  </si>
+  <si>
+    <t>肝小葉形成異常</t>
+  </si>
+  <si>
+    <t>バルーン肝細胞変性</t>
+  </si>
+  <si>
+    <t>肝小葉炎症</t>
+  </si>
+  <si>
+    <t>肝門周囲emperipolesis</t>
+  </si>
+  <si>
+    <t>肝動脈周囲壊死</t>
+  </si>
+  <si>
+    <t>肝細胞壊死</t>
+  </si>
+  <si>
+    <t>肝肉芽腫症</t>
+  </si>
+  <si>
+    <t>肝鉄濃度上昇</t>
+  </si>
+  <si>
+    <t>肝ブリッジ線維症</t>
+  </si>
+  <si>
+    <t>大動脈周囲線維症</t>
+  </si>
+  <si>
+    <t>先天性肝線維症</t>
+  </si>
+  <si>
+    <t>肝臓正中線</t>
+  </si>
+  <si>
+    <t>肝膿瘍</t>
+  </si>
+  <si>
+    <t>肝グリコーゲン含量の増加</t>
+  </si>
+  <si>
+    <t>肝肺融合</t>
+  </si>
+  <si>
+    <t>小結節性肝硬変</t>
+  </si>
+  <si>
+    <t>混合性肝硬変</t>
+  </si>
+  <si>
+    <t>巨大結節性肝硬変</t>
+  </si>
+  <si>
+    <t>肝動静脈奇形</t>
+  </si>
+  <si>
+    <t>肝外門脈圧亢進症</t>
+  </si>
+  <si>
+    <t>肝内門脈硬化症</t>
+  </si>
+  <si>
+    <t>先天性門脈欠如</t>
+  </si>
+  <si>
+    <t>脾門脈系異常</t>
+  </si>
+  <si>
+    <t>肝血管奇形</t>
+  </si>
+  <si>
+    <t>左房への肝静脈ドレナージ異常</t>
+  </si>
+  <si>
+    <t>門脈過形成</t>
+  </si>
+  <si>
+    <t>肝石灰化</t>
+  </si>
+  <si>
+    <t>肝アミロイドーシス</t>
+  </si>
+  <si>
+    <t>新生児胆汁うっ滞性肝疾患</t>
+  </si>
+  <si>
+    <t>間欠性黄疸</t>
+  </si>
+  <si>
+    <t>長期新生児黄疸</t>
+  </si>
+  <si>
+    <t>肝外胆汁うっ滞</t>
+  </si>
+  <si>
+    <t>無胃酸便</t>
+  </si>
+  <si>
+    <t>門脈線維症</t>
+  </si>
+  <si>
+    <t>胆嚢炎</t>
+  </si>
+  <si>
+    <t>胆嚢機能障害</t>
+  </si>
+  <si>
+    <t>コレステロール胆石</t>
+  </si>
+  <si>
+    <t>黒色色素性胆石</t>
+  </si>
+  <si>
+    <t>褐色色素性胆石</t>
+  </si>
+  <si>
+    <t>胆嚢腫大</t>
+  </si>
+  <si>
+    <t>両葉胆嚢</t>
+  </si>
+  <si>
+    <t>膀胱動脈仮性動脈瘤</t>
+  </si>
+  <si>
+    <t>胆嚢壁肥厚</t>
+  </si>
+  <si>
+    <t>胆嚢腫瘤</t>
+  </si>
+  <si>
+    <t>無痛性胆嚢</t>
+  </si>
+  <si>
+    <t>胆嚢欠損</t>
+  </si>
+  <si>
+    <t>胆嚢低形成</t>
+  </si>
+  <si>
+    <t>胆嚢穿孔</t>
+  </si>
+  <si>
+    <t>門脈炎</t>
+  </si>
+  <si>
+    <t>肝管板奇形</t>
+  </si>
+  <si>
+    <t>肝内胆管嚢胞</t>
+  </si>
+  <si>
+    <t>線維閉塞性胆管病変</t>
+  </si>
+  <si>
+    <t>肝内胆道閉鎖症</t>
+  </si>
+  <si>
+    <t>小葉間胆管破壊</t>
+  </si>
+  <si>
+    <t>肝内胆管拡張症</t>
+  </si>
+  <si>
+    <t>肝内胆管数の減少</t>
+  </si>
+  <si>
+    <t>肝内胆道形成異常症</t>
+  </si>
+  <si>
+    <t>多形胆管炎</t>
+  </si>
+  <si>
+    <t>肉芽腫性胆管炎</t>
+  </si>
+  <si>
+    <t>リンパ性胆管炎</t>
+  </si>
+  <si>
+    <t>化膿性胆管炎</t>
+  </si>
+  <si>
+    <t>硬化性胆管炎</t>
+  </si>
+  <si>
+    <t>胆汁性肝硬変</t>
+  </si>
+  <si>
+    <t>肝外胆道閉鎖症</t>
+  </si>
+  <si>
+    <t>胆道過形成</t>
+  </si>
+  <si>
+    <t>胆道閉塞</t>
+  </si>
+  <si>
+    <t>胆道上皮過形成</t>
+  </si>
+  <si>
+    <t>胆管増殖症</t>
+  </si>
+  <si>
+    <t>門脈側副静脈</t>
+  </si>
+  <si>
+    <t>胆管ポリープ</t>
+  </si>
+  <si>
+    <t>胆管栓</t>
+  </si>
+  <si>
+    <t>胆管嚢胞</t>
+  </si>
+  <si>
+    <t>奇異括約筋運動障害</t>
+  </si>
+  <si>
+    <t>胆嚢運動障害</t>
+  </si>
+  <si>
+    <t>β細胞機能障害</t>
+  </si>
+  <si>
+    <t>膵β細胞の減少</t>
+  </si>
+  <si>
+    <t>多発性膵β細胞腺腫</t>
+  </si>
+  <si>
+    <t>インスリノーマ</t>
+  </si>
+  <si>
+    <t>びまん性膵島過形成</t>
+  </si>
+  <si>
+    <t>膵α細胞過形成</t>
+  </si>
+  <si>
+    <t>限局性膵島過形成</t>
+  </si>
+  <si>
+    <t>膵外分泌機能不全</t>
+  </si>
+  <si>
+    <t>急性膵炎</t>
+  </si>
+  <si>
+    <t>慢性膵炎</t>
+  </si>
+  <si>
+    <t>慢性石灰化膵炎</t>
+  </si>
+  <si>
+    <t>再発性膵炎</t>
+  </si>
+  <si>
+    <t>膵扁平上皮がん</t>
+  </si>
+  <si>
+    <t>膵芽腫</t>
+  </si>
+  <si>
+    <t>膵腺がん</t>
+  </si>
+  <si>
+    <t>膵仮性嚢胞</t>
+  </si>
+  <si>
+    <t>膵線維症</t>
+  </si>
+  <si>
+    <t>膵異形成</t>
+  </si>
+  <si>
+    <t>膵過形成</t>
+  </si>
+  <si>
+    <t>膵低形成</t>
+  </si>
+  <si>
+    <t>膵形成不全</t>
+  </si>
+  <si>
+    <t>膵管重複症</t>
+  </si>
+  <si>
+    <t>ネシジオブラストーシス</t>
+  </si>
+  <si>
+    <t>膵嚢胞</t>
+  </si>
+  <si>
+    <t>膵石灰化</t>
+  </si>
+  <si>
+    <t>異所性膵組織</t>
+  </si>
+  <si>
+    <t>膵分割症</t>
+  </si>
+  <si>
+    <t>高エコー源性膵臓</t>
+  </si>
+  <si>
+    <t>環状膵</t>
+  </si>
+  <si>
+    <t>膵リンパ管拡張症</t>
+  </si>
+  <si>
+    <t>膵瘻</t>
+  </si>
+  <si>
+    <t>膵脂肪症</t>
+  </si>
+  <si>
+    <t>膵膿瘍</t>
+  </si>
+  <si>
+    <t>メコン性腹膜炎</t>
+  </si>
+  <si>
+    <t>肝周囲癒着</t>
+  </si>
+  <si>
+    <t>後腹膜線維症</t>
+  </si>
+  <si>
+    <t>血性腹膜炎</t>
+  </si>
+  <si>
+    <t>卵管膿瘍</t>
+  </si>
+  <si>
+    <t>腹水貯留</t>
+  </si>
+  <si>
+    <t>糞便中イソコプロポルフィリン増加</t>
+  </si>
+  <si>
+    <t>糞便ハードポルフィリン増加</t>
+  </si>
+  <si>
+    <t>糞便中コプロポルフィリン1の増加</t>
+  </si>
+  <si>
+    <t>糞便中ペンタカルボキシルポルフィリン増加</t>
+  </si>
+  <si>
+    <t>糞便中コプロポルフィリン3の増加</t>
+  </si>
+  <si>
+    <t>糞便中ヘプタカルボキシルポルフィリンの増加</t>
+  </si>
+  <si>
+    <t>便中α1-アンチトリプシン濃度増加</t>
+  </si>
+  <si>
+    <t>便中ウロビリノーゲン濃度上昇</t>
+  </si>
+  <si>
+    <t>便の塩化物濃度の上昇</t>
+  </si>
+  <si>
+    <t>便中コプロポルフィリンIII：コプロポルフィリンI比の上昇</t>
+  </si>
+  <si>
+    <t>便エラスターゼ濃度低下</t>
+  </si>
+  <si>
+    <t>便中ナトリウム濃度の上昇</t>
+  </si>
+  <si>
+    <t>糞便pH上昇</t>
+  </si>
+  <si>
+    <t>糞便pH低下</t>
+  </si>
+  <si>
+    <t>糞便中胆汁酸増加</t>
+  </si>
+  <si>
+    <t>糞便中プロトポルフィリン濃度上昇</t>
+  </si>
+  <si>
+    <t>便中ボツリヌス菌検査陽性</t>
+  </si>
+  <si>
+    <t>便中カルプロテクチン濃度の上昇</t>
+  </si>
+  <si>
+    <t>糞便浸透圧上昇</t>
+  </si>
+  <si>
+    <t>糞便浸透圧低下</t>
   </si>
   <si>
     <t>女性の用語らしい</t>
@@ -2505,7 +3957,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A471" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -2515,7 +3967,7 @@
     <col min="7" max="7" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2523,19 +3975,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>500</v>
+        <v>984</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>501</v>
+        <v>985</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>502</v>
+        <v>986</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>10475</v>
       </c>
@@ -2549,7 +4001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2836</v>
       </c>
@@ -2562,8 +4014,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>5243</v>
       </c>
@@ -2576,8 +4031,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>5199</v>
       </c>
@@ -2590,8 +4048,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5247</v>
       </c>
@@ -2604,8 +4065,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>1540</v>
       </c>
@@ -2618,8 +4082,11 @@
       <c r="D7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>32511</v>
       </c>
@@ -2632,8 +4099,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>32527</v>
       </c>
@@ -2646,8 +4116,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>34453</v>
       </c>
@@ -2660,8 +4133,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>32277</v>
       </c>
@@ -2674,8 +4150,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>1537</v>
       </c>
@@ -2688,8 +4167,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>1544</v>
       </c>
@@ -2702,8 +4184,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>4392</v>
       </c>
@@ -2716,8 +4201,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>1543</v>
       </c>
@@ -2730,8 +4218,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>100657</v>
       </c>
@@ -2747,8 +4238,11 @@
       <c r="F16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>4872</v>
       </c>
@@ -2764,8 +4258,11 @@
       <c r="F17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>1539</v>
       </c>
@@ -2781,8 +4278,11 @@
       <c r="F18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>2933</v>
       </c>
@@ -2798,8 +4298,11 @@
       <c r="F19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>100541</v>
       </c>
@@ -2815,8 +4318,11 @@
       <c r="F20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>23</v>
       </c>
@@ -2832,8 +4338,11 @@
       <c r="F21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>12621</v>
       </c>
@@ -2849,8 +4358,11 @@
       <c r="F22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>34361</v>
       </c>
@@ -2863,8 +4375,11 @@
       <c r="F23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>2575</v>
       </c>
@@ -2877,8 +4392,11 @@
       <c r="D24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>31985</v>
       </c>
@@ -2891,8 +4409,11 @@
       <c r="E25" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>31858</v>
       </c>
@@ -2905,8 +4426,11 @@
       <c r="E26" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>34520</v>
       </c>
@@ -2919,8 +4443,11 @@
       <c r="D27" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>2043</v>
       </c>
@@ -2933,8 +4460,11 @@
       <c r="D28" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>2040</v>
       </c>
@@ -2947,8 +4477,11 @@
       <c r="D29" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>31984</v>
       </c>
@@ -2958,8 +4491,11 @@
       <c r="D30" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>100681</v>
       </c>
@@ -2972,8 +4508,11 @@
       <c r="D31" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>12859</v>
       </c>
@@ -2986,8 +4525,11 @@
       <c r="D32" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="G32" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>31463</v>
       </c>
@@ -2997,8 +4539,11 @@
       <c r="C33" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="G33" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>11459</v>
       </c>
@@ -3008,8 +4553,11 @@
       <c r="C34" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="G34" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>100580</v>
       </c>
@@ -3019,8 +4567,11 @@
       <c r="C35" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="G35" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>410151</v>
       </c>
@@ -3033,8 +4584,11 @@
       <c r="E36" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="G36" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>410152</v>
       </c>
@@ -3047,8 +4601,11 @@
       <c r="E37" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="G37" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>100594</v>
       </c>
@@ -3064,8 +4621,11 @@
       <c r="E38" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="G38" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>100628</v>
       </c>
@@ -3078,8 +4638,11 @@
       <c r="D39" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="G39" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>4791</v>
       </c>
@@ -3092,8 +4655,11 @@
       <c r="D40" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="G40" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>5240</v>
       </c>
@@ -3106,8 +4672,11 @@
       <c r="D41" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="G41" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>4403</v>
       </c>
@@ -3120,8 +4689,11 @@
       <c r="D42" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="G42" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>5203</v>
       </c>
@@ -3134,8 +4706,11 @@
       <c r="D43" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="G43" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>32062</v>
       </c>
@@ -3148,8 +4723,11 @@
       <c r="D44" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="G44" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>11128</v>
       </c>
@@ -3162,8 +4740,11 @@
       <c r="D45" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="G45" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>32023</v>
       </c>
@@ -3176,8 +4757,11 @@
       <c r="E46" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="G46" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>32021</v>
       </c>
@@ -3190,8 +4774,11 @@
       <c r="E47" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="G47" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>410147</v>
       </c>
@@ -3204,8 +4791,11 @@
       <c r="E48" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="G48" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>31813</v>
       </c>
@@ -3218,8 +4808,11 @@
       <c r="E49" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="G49" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>31780</v>
       </c>
@@ -3232,8 +4825,11 @@
       <c r="E50" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="G50" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>5223</v>
       </c>
@@ -3246,8 +4842,11 @@
       <c r="D51" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="G51" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>11139</v>
       </c>
@@ -3260,8 +4859,11 @@
       <c r="D52" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="G52" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>471</v>
       </c>
@@ -3274,8 +4876,11 @@
       <c r="E53" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="G53" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>2604</v>
       </c>
@@ -3288,8 +4893,11 @@
       <c r="E54" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="G54" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>31346</v>
       </c>
@@ -3302,8 +4910,11 @@
       <c r="D55" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="G55" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>31342</v>
       </c>
@@ -3316,8 +4927,11 @@
       <c r="D56" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="G56" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>31345</v>
       </c>
@@ -3330,8 +4944,11 @@
       <c r="D57" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="G57" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>31343</v>
       </c>
@@ -3344,8 +4961,11 @@
       <c r="D58" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="G58" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>31341</v>
       </c>
@@ -3358,8 +4978,11 @@
       <c r="D59" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="G59" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>4788</v>
       </c>
@@ -3372,8 +4995,11 @@
       <c r="D60" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="G60" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>11956</v>
       </c>
@@ -3386,8 +5012,11 @@
       <c r="E61" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="G61" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>30937</v>
       </c>
@@ -3400,8 +5029,11 @@
       <c r="E62" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="G62" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>30936</v>
       </c>
@@ -3414,8 +5046,11 @@
       <c r="E63" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="G63" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>25149</v>
       </c>
@@ -3428,8 +5063,11 @@
       <c r="E64" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="G64" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>25198</v>
       </c>
@@ -3442,8 +5080,11 @@
       <c r="D65" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="G65" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>32222</v>
       </c>
@@ -3456,8 +5097,11 @@
       <c r="D66" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="G66" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>5238</v>
       </c>
@@ -3470,8 +5114,11 @@
       <c r="D67" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="G67" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>4783</v>
       </c>
@@ -3484,8 +5131,11 @@
       <c r="D68" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="G68" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>100896</v>
       </c>
@@ -3498,8 +5148,11 @@
       <c r="D69" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="G69" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>5227</v>
       </c>
@@ -3512,8 +5165,11 @@
       <c r="D70" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="G70" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>200063</v>
       </c>
@@ -3526,8 +5182,11 @@
       <c r="D71" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="G71" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>12198</v>
       </c>
@@ -3540,8 +5199,11 @@
       <c r="D72" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="G72" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>12183</v>
       </c>
@@ -3554,8 +5216,11 @@
       <c r="D73" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="G73" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>12737</v>
       </c>
@@ -3568,8 +5233,11 @@
       <c r="D74" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="G74" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>4795</v>
       </c>
@@ -3582,8 +5250,11 @@
       <c r="D75" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="G75" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>4784</v>
       </c>
@@ -3596,8 +5267,11 @@
       <c r="D76" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="G76" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>33309</v>
       </c>
@@ -3610,8 +5284,11 @@
       <c r="D77" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="G77" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>2247</v>
       </c>
@@ -3624,8 +5301,11 @@
       <c r="D78" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="G78" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>25023</v>
       </c>
@@ -3638,8 +5318,11 @@
       <c r="D79" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="G79" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>4797</v>
       </c>
@@ -3652,8 +5335,11 @@
       <c r="D80" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="G80" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>200116</v>
       </c>
@@ -3666,8 +5352,11 @@
       <c r="D81" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="G81" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>10448</v>
       </c>
@@ -3680,8 +5369,11 @@
       <c r="D82" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="G82" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83">
         <v>5235</v>
       </c>
@@ -3694,8 +5386,11 @@
       <c r="D83" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="G83" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84">
         <v>33279</v>
       </c>
@@ -3708,8 +5403,11 @@
       <c r="D84" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="G84" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85">
         <v>5218</v>
       </c>
@@ -3722,8 +5420,11 @@
       <c r="D85" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="G85" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86">
         <v>34255</v>
       </c>
@@ -3736,8 +5437,11 @@
       <c r="D86" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="G86" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87">
         <v>4792</v>
       </c>
@@ -3750,8 +5454,11 @@
       <c r="D87" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="G87" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88">
         <v>34452</v>
       </c>
@@ -3764,8 +5471,11 @@
       <c r="D88" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="G88" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89">
         <v>25026</v>
       </c>
@@ -3778,8 +5488,11 @@
       <c r="D89" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="G89" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90">
         <v>143</v>
       </c>
@@ -3792,8 +5505,11 @@
       <c r="D90" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="G90" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91">
         <v>25407</v>
       </c>
@@ -3806,8 +5522,11 @@
       <c r="D91" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="G91" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92">
         <v>34451</v>
       </c>
@@ -3820,8 +5539,11 @@
       <c r="D92" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="G92" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93">
         <v>12739</v>
       </c>
@@ -3834,8 +5556,11 @@
       <c r="D93" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="G93" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94">
         <v>5229</v>
       </c>
@@ -3848,8 +5573,11 @@
       <c r="D94" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="G94" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95">
         <v>33143</v>
       </c>
@@ -3862,8 +5590,11 @@
       <c r="D95" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="G95" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96">
         <v>2243</v>
       </c>
@@ -3876,8 +5607,11 @@
       <c r="D96" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="G96" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97">
         <v>4000012</v>
       </c>
@@ -3890,8 +5624,11 @@
       <c r="D97" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="G97" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98">
         <v>32024</v>
       </c>
@@ -3904,8 +5641,11 @@
       <c r="D98" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="G98" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99">
         <v>33433</v>
       </c>
@@ -3918,8 +5658,11 @@
       <c r="D99" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="G99" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100">
         <v>2245</v>
       </c>
@@ -3932,8 +5675,11 @@
       <c r="D100" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="G100" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101">
         <v>2608</v>
       </c>
@@ -3943,8 +5689,11 @@
       <c r="C101" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="G101" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102">
         <v>33995</v>
       </c>
@@ -3954,8 +5703,11 @@
       <c r="E102" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="G102" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103">
         <v>11473</v>
       </c>
@@ -3965,8 +5717,11 @@
       <c r="E103" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="G103" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104">
         <v>33996</v>
       </c>
@@ -3976,8 +5731,11 @@
       <c r="E104" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="G104" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105">
         <v>12849</v>
       </c>
@@ -3990,8 +5748,11 @@
       <c r="D105" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="G105" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106">
         <v>4794</v>
       </c>
@@ -4004,8 +5765,11 @@
       <c r="D106" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="G106" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107">
         <v>4790</v>
       </c>
@@ -4018,8 +5782,11 @@
       <c r="D107" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="G107" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108">
         <v>4799</v>
       </c>
@@ -4032,8 +5799,11 @@
       <c r="D108" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="G108" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109">
         <v>4800</v>
       </c>
@@ -4046,8 +5816,11 @@
       <c r="D109" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="G109" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110">
         <v>4786</v>
       </c>
@@ -4060,8 +5833,11 @@
       <c r="D110" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="G110" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111">
         <v>25130</v>
       </c>
@@ -4071,8 +5847,11 @@
       <c r="E111" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:5">
+      <c r="G111" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112">
         <v>30889</v>
       </c>
@@ -4085,8 +5864,11 @@
       <c r="D112" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:6">
+      <c r="G112" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113">
         <v>12850</v>
       </c>
@@ -4096,8 +5878,11 @@
       <c r="D113" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:6">
+      <c r="G113" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114">
         <v>33116</v>
       </c>
@@ -4107,8 +5892,11 @@
       <c r="D114" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:6">
+      <c r="G114" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115">
         <v>12414</v>
       </c>
@@ -4118,8 +5906,11 @@
       <c r="D115" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:6">
+      <c r="G115" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116">
         <v>33117</v>
       </c>
@@ -4132,8 +5923,11 @@
       <c r="D116" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:6">
+      <c r="G116" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117">
         <v>30996</v>
       </c>
@@ -4146,8 +5940,11 @@
       <c r="D117" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:6">
+      <c r="G117" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118">
         <v>100867</v>
       </c>
@@ -4157,8 +5954,11 @@
       <c r="D118" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:6">
+      <c r="G118" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119">
         <v>2588</v>
       </c>
@@ -4171,8 +5971,11 @@
       <c r="D119" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:6">
+      <c r="G119" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120">
         <v>2570</v>
       </c>
@@ -4188,8 +5991,11 @@
       <c r="F120" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:6">
+      <c r="G120" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121">
         <v>33163</v>
       </c>
@@ -4202,8 +6008,11 @@
       <c r="E121" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:6">
+      <c r="G121" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122">
         <v>2593</v>
       </c>
@@ -4216,8 +6025,11 @@
       <c r="D122" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:6">
+      <c r="G122" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123">
         <v>5234</v>
       </c>
@@ -4230,8 +6042,11 @@
       <c r="D123" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:6">
+      <c r="G123" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124">
         <v>2590</v>
       </c>
@@ -4244,8 +6059,11 @@
       <c r="D124" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:6">
+      <c r="G124" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125">
         <v>4401</v>
       </c>
@@ -4258,8 +6076,11 @@
       <c r="D125" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:6">
+      <c r="G125" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126">
         <v>5250</v>
       </c>
@@ -4272,8 +6093,11 @@
       <c r="D126" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:6">
+      <c r="G126" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127">
         <v>2580</v>
       </c>
@@ -4286,8 +6110,11 @@
       <c r="D127" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:6">
+      <c r="G127" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128">
         <v>5210</v>
       </c>
@@ -4300,8 +6127,11 @@
       <c r="D128" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:5">
+      <c r="G128" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129">
         <v>4388</v>
       </c>
@@ -4314,8 +6144,11 @@
       <c r="D129" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:5">
+      <c r="G129" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130">
         <v>500027</v>
       </c>
@@ -4328,8 +6161,11 @@
       <c r="D130" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:5">
+      <c r="G130" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131">
         <v>2253</v>
       </c>
@@ -4342,8 +6178,11 @@
       <c r="D131" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:5">
+      <c r="G131" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132">
         <v>5241</v>
       </c>
@@ -4353,8 +6192,11 @@
       <c r="C132" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:5">
+      <c r="G132" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133">
         <v>11465</v>
       </c>
@@ -4364,8 +6206,11 @@
       <c r="C133" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:5">
+      <c r="G133" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134">
         <v>25151</v>
       </c>
@@ -4375,8 +6220,11 @@
       <c r="C134" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:5">
+      <c r="G134" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135">
         <v>25150</v>
       </c>
@@ -4386,8 +6234,11 @@
       <c r="C135" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:5">
+      <c r="G135" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136">
         <v>11284</v>
       </c>
@@ -4397,8 +6248,11 @@
       <c r="C136" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:5">
+      <c r="G136" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137">
         <v>11286</v>
       </c>
@@ -4408,8 +6262,11 @@
       <c r="C137" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:5">
+      <c r="G137" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138">
         <v>11285</v>
       </c>
@@ -4419,8 +6276,11 @@
       <c r="C138" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:5">
+      <c r="G138" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139">
         <v>30938</v>
       </c>
@@ -4433,8 +6293,11 @@
       <c r="E139" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:5">
+      <c r="G139" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140">
         <v>25030</v>
       </c>
@@ -4447,8 +6310,11 @@
       <c r="E140" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:5">
+      <c r="G140" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141">
         <v>4785</v>
       </c>
@@ -4461,8 +6327,11 @@
       <c r="E141" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:5">
+      <c r="G141" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142">
         <v>5211</v>
       </c>
@@ -4475,8 +6344,11 @@
       <c r="E142" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:5">
+      <c r="G142" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143">
         <v>34301</v>
       </c>
@@ -4492,8 +6364,11 @@
       <c r="E143" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:5">
+      <c r="G143" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144">
         <v>12425</v>
       </c>
@@ -4509,8 +6384,11 @@
       <c r="E144" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:5">
+      <c r="G144" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145">
         <v>12851</v>
       </c>
@@ -4526,8 +6404,11 @@
       <c r="E145" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:5">
+      <c r="G145" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146">
         <v>3003</v>
       </c>
@@ -4537,8 +6418,11 @@
       <c r="C146" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:5">
+      <c r="G146" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147">
         <v>40276</v>
       </c>
@@ -4548,8 +6432,11 @@
       <c r="C147" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:5">
+      <c r="G147" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148">
         <v>6763</v>
       </c>
@@ -4559,8 +6446,11 @@
       <c r="C148" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:5">
+      <c r="G148" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149">
         <v>30439</v>
       </c>
@@ -4570,8 +6460,11 @@
       <c r="C149" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:5">
+      <c r="G149" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150">
         <v>30438</v>
       </c>
@@ -4581,8 +6474,11 @@
       <c r="C150" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:5">
+      <c r="G150" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151">
         <v>6716</v>
       </c>
@@ -4592,8 +6488,11 @@
       <c r="C151" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:5">
+      <c r="G151" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152">
         <v>32216</v>
       </c>
@@ -4606,8 +6505,11 @@
       <c r="E152" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:5">
+      <c r="G152" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153">
         <v>25024</v>
       </c>
@@ -4620,8 +6522,11 @@
       <c r="E153" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:5">
+      <c r="G153" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154">
         <v>5224</v>
       </c>
@@ -4631,8 +6536,11 @@
       <c r="C154" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:5">
+      <c r="G154" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155">
         <v>32551</v>
       </c>
@@ -4642,8 +6550,11 @@
       <c r="C155" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:5">
+      <c r="G155" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156">
         <v>100822</v>
       </c>
@@ -4653,8 +6564,11 @@
       <c r="C156" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:5">
+      <c r="G156" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157">
         <v>33150</v>
       </c>
@@ -4664,8 +6578,11 @@
       <c r="C157" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:5">
+      <c r="G157" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158">
         <v>12550</v>
       </c>
@@ -4675,8 +6592,11 @@
       <c r="C158" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:5">
+      <c r="G158" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159">
         <v>32203</v>
       </c>
@@ -4689,8 +6609,11 @@
       <c r="E159" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:5">
+      <c r="G159" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160">
         <v>33164</v>
       </c>
@@ -4700,8 +6623,11 @@
       <c r="C160" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:4">
+      <c r="G160" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161">
         <v>33165</v>
       </c>
@@ -4711,8 +6637,11 @@
       <c r="C161" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:4">
+      <c r="G161" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162">
         <v>100282</v>
       </c>
@@ -4722,8 +6651,11 @@
       <c r="C162" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:4">
+      <c r="G162" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163">
         <v>33256</v>
       </c>
@@ -4733,8 +6665,11 @@
       <c r="C163" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:4">
+      <c r="G163" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164">
         <v>100279</v>
       </c>
@@ -4744,8 +6679,11 @@
       <c r="C164" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:4">
+      <c r="G164" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165">
         <v>31369</v>
       </c>
@@ -4755,8 +6693,11 @@
       <c r="C165" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:4">
+      <c r="G165" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
       <c r="A166">
         <v>31371</v>
       </c>
@@ -4766,8 +6707,11 @@
       <c r="C166" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:4">
+      <c r="G166" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167">
         <v>31370</v>
       </c>
@@ -4777,8 +6721,11 @@
       <c r="C167" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:4">
+      <c r="G167" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
       <c r="A168">
         <v>5220</v>
       </c>
@@ -4788,8 +6735,11 @@
       <c r="C168" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:4">
+      <c r="G168" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
       <c r="A169">
         <v>4389</v>
       </c>
@@ -4802,8 +6752,11 @@
       <c r="D169" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:4">
+      <c r="G169" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
       <c r="A170">
         <v>4789</v>
       </c>
@@ -4816,8 +6769,11 @@
       <c r="D170" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:4">
+      <c r="G170" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
       <c r="A171">
         <v>41049</v>
       </c>
@@ -4830,8 +6786,11 @@
       <c r="D171" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:4">
+      <c r="G171" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
       <c r="A172">
         <v>30169</v>
       </c>
@@ -4841,8 +6800,11 @@
       <c r="C172" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:4">
+      <c r="G172" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
       <c r="A173">
         <v>100802</v>
       </c>
@@ -4852,8 +6814,11 @@
       <c r="D173" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:4">
+      <c r="G173" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174">
         <v>2592</v>
       </c>
@@ -4866,8 +6831,11 @@
       <c r="D174" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:4">
+      <c r="G174" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
       <c r="A175">
         <v>2582</v>
       </c>
@@ -4880,8 +6848,11 @@
       <c r="D175" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:4">
+      <c r="G175" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
       <c r="A176">
         <v>5231</v>
       </c>
@@ -4894,8 +6865,11 @@
       <c r="D176" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:5">
+      <c r="G176" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
       <c r="A177">
         <v>5246</v>
       </c>
@@ -4908,8 +6882,11 @@
       <c r="D177" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:5">
+      <c r="G177" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
       <c r="A178">
         <v>100808</v>
       </c>
@@ -4922,8 +6899,11 @@
       <c r="D178" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:5">
+      <c r="G178" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
       <c r="A179">
         <v>5219</v>
       </c>
@@ -4939,8 +6919,11 @@
       <c r="E179" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:5">
+      <c r="G179" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
       <c r="A180">
         <v>34468</v>
       </c>
@@ -4953,8 +6936,11 @@
       <c r="D180" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:5">
+      <c r="G180" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
       <c r="A181">
         <v>4399</v>
       </c>
@@ -4967,8 +6953,11 @@
       <c r="D181" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:5">
+      <c r="G181" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
       <c r="A182">
         <v>2021</v>
       </c>
@@ -4981,8 +6970,11 @@
       <c r="D182" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:5">
+      <c r="G182" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
       <c r="A183">
         <v>2036</v>
       </c>
@@ -4995,8 +6987,11 @@
       <c r="D183" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:5">
+      <c r="G183" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
       <c r="A184">
         <v>100841</v>
       </c>
@@ -5009,8 +7004,11 @@
       <c r="D184" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:5">
+      <c r="G184" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
       <c r="A185">
         <v>5207</v>
       </c>
@@ -5023,8 +7021,11 @@
       <c r="D185" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:5">
+      <c r="G185" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
       <c r="A186">
         <v>31025</v>
       </c>
@@ -5037,8 +7038,11 @@
       <c r="D186" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:5">
+      <c r="G186" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
       <c r="A187">
         <v>33769</v>
       </c>
@@ -5051,8 +7055,11 @@
       <c r="D187" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:5">
+      <c r="G187" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
       <c r="A188">
         <v>4394</v>
       </c>
@@ -5065,8 +7072,11 @@
       <c r="D188" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:5">
+      <c r="G188" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
       <c r="A189">
         <v>33770</v>
       </c>
@@ -5076,8 +7086,11 @@
       <c r="C189" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:5">
+      <c r="G189" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
       <c r="A190">
         <v>12126</v>
       </c>
@@ -5087,8 +7100,11 @@
       <c r="C190" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:5">
+      <c r="G190" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
       <c r="A191">
         <v>45038</v>
       </c>
@@ -5098,8 +7114,11 @@
       <c r="C191" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:5">
+      <c r="G191" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
       <c r="A192">
         <v>5212</v>
       </c>
@@ -5109,8 +7128,11 @@
       <c r="C192" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:4">
+      <c r="G192" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
       <c r="A193">
         <v>30442</v>
       </c>
@@ -5120,8 +7142,11 @@
       <c r="C193" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:4">
+      <c r="G193" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
       <c r="A194">
         <v>30441</v>
       </c>
@@ -5131,8 +7156,11 @@
       <c r="C194" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:4">
+      <c r="G194" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
       <c r="A195">
         <v>30443</v>
       </c>
@@ -5142,8 +7170,11 @@
       <c r="C195" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:4">
+      <c r="G195" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
       <c r="A196">
         <v>30444</v>
       </c>
@@ -5153,8 +7184,11 @@
       <c r="C196" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:4">
+      <c r="G196" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
       <c r="A197">
         <v>12390</v>
       </c>
@@ -5167,8 +7201,11 @@
       <c r="D197" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:4">
+      <c r="G197" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
       <c r="A198">
         <v>9789</v>
       </c>
@@ -5178,8 +7215,11 @@
       <c r="C198" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:4">
+      <c r="G198" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
       <c r="A199">
         <v>12890</v>
       </c>
@@ -5192,8 +7232,11 @@
       <c r="D199" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:4">
+      <c r="G199" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
       <c r="A200">
         <v>1545</v>
       </c>
@@ -5206,8 +7249,11 @@
       <c r="D200" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:4">
+      <c r="G200" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
       <c r="A201">
         <v>2023</v>
       </c>
@@ -5220,8 +7266,11 @@
       <c r="D201" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:4">
+      <c r="G201" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
       <c r="A202">
         <v>2025</v>
       </c>
@@ -5234,8 +7283,11 @@
       <c r="D202" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:4">
+      <c r="G202" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
       <c r="A203">
         <v>11131</v>
       </c>
@@ -5248,8 +7300,11 @@
       <c r="D203" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:4">
+      <c r="G203" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
       <c r="A204">
         <v>32187</v>
       </c>
@@ -5259,8 +7314,11 @@
       <c r="C204" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:4">
+      <c r="G204" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
       <c r="A205">
         <v>33254</v>
       </c>
@@ -5273,8 +7331,11 @@
       <c r="D205" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:4">
+      <c r="G205" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
       <c r="A206">
         <v>6719</v>
       </c>
@@ -5284,8 +7345,11 @@
       <c r="C206" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:4">
+      <c r="G206" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
       <c r="A207">
         <v>2044</v>
       </c>
@@ -5295,8 +7359,11 @@
       <c r="C207" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:4">
+      <c r="G207" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
       <c r="A208">
         <v>100723</v>
       </c>
@@ -5306,8 +7373,11 @@
       <c r="C208" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:3">
+      <c r="G208" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
       <c r="A209">
         <v>6723</v>
       </c>
@@ -5317,8 +7387,11 @@
       <c r="C209" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:3">
+      <c r="G209" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
       <c r="A210">
         <v>2884</v>
       </c>
@@ -5328,8 +7401,11 @@
       <c r="C210" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:3">
+      <c r="G210" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
       <c r="A211">
         <v>1402</v>
       </c>
@@ -5339,8 +7415,11 @@
       <c r="C211" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:3">
+      <c r="G211" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
       <c r="A212">
         <v>34498</v>
       </c>
@@ -5350,8 +7429,11 @@
       <c r="C212" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:3">
+      <c r="G212" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
       <c r="A213">
         <v>34514</v>
       </c>
@@ -5361,8 +7443,11 @@
       <c r="C213" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:3">
+      <c r="G213" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
       <c r="A214">
         <v>4000154</v>
       </c>
@@ -5372,8 +7457,11 @@
       <c r="C214" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:3">
+      <c r="G214" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
       <c r="A215">
         <v>12028</v>
       </c>
@@ -5383,8 +7471,11 @@
       <c r="C215" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:3">
+      <c r="G215" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
       <c r="A216">
         <v>31207</v>
       </c>
@@ -5394,8 +7485,11 @@
       <c r="C216" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:3">
+      <c r="G216" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
       <c r="A217">
         <v>30406</v>
       </c>
@@ -5405,8 +7499,11 @@
       <c r="C217" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:3">
+      <c r="G217" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
       <c r="A218">
         <v>31524</v>
       </c>
@@ -5416,8 +7513,11 @@
       <c r="C218" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="1:3">
+      <c r="G218" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
       <c r="A219">
         <v>30411</v>
       </c>
@@ -5427,8 +7527,11 @@
       <c r="C219" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:3">
+      <c r="G219" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
       <c r="A220">
         <v>6771</v>
       </c>
@@ -5438,8 +7541,11 @@
       <c r="C220" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:3">
+      <c r="G220" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
       <c r="A221">
         <v>30412</v>
       </c>
@@ -5449,8 +7555,11 @@
       <c r="C221" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:3">
+      <c r="G221" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
       <c r="A222">
         <v>25519</v>
       </c>
@@ -5460,8 +7569,11 @@
       <c r="C222" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:3">
+      <c r="G222" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
       <c r="A223">
         <v>100575</v>
       </c>
@@ -5471,8 +7583,11 @@
       <c r="C223" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:3">
+      <c r="G223" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
       <c r="A224">
         <v>30153</v>
       </c>
@@ -5482,8 +7597,11 @@
       <c r="C224" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:6">
+      <c r="G224" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
       <c r="A225">
         <v>6722</v>
       </c>
@@ -5493,8 +7611,11 @@
       <c r="C225" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:6">
+      <c r="G225" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
       <c r="A226">
         <v>100245</v>
       </c>
@@ -5504,8 +7625,11 @@
       <c r="C226" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:6">
+      <c r="G226" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
       <c r="A227">
         <v>4000055</v>
       </c>
@@ -5515,8 +7639,11 @@
       <c r="C227" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:6">
+      <c r="G227" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
       <c r="A228">
         <v>100280</v>
       </c>
@@ -5526,8 +7653,11 @@
       <c r="C228" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="1:6">
+      <c r="G228" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
       <c r="A229">
         <v>32168</v>
       </c>
@@ -5537,8 +7667,11 @@
       <c r="C229" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:6">
+      <c r="G229" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
       <c r="A230">
         <v>32167</v>
       </c>
@@ -5548,8 +7681,11 @@
       <c r="C230" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="1:6">
+      <c r="G230" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
       <c r="A231">
         <v>32448</v>
       </c>
@@ -5562,8 +7698,11 @@
       <c r="D231" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:6">
+      <c r="G231" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
       <c r="A232">
         <v>25271</v>
       </c>
@@ -5576,8 +7715,11 @@
       <c r="D232" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:6">
+      <c r="G232" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
       <c r="A233">
         <v>2020</v>
       </c>
@@ -5587,8 +7729,11 @@
       <c r="C233" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:6">
+      <c r="G233" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
       <c r="A234">
         <v>2571</v>
       </c>
@@ -5598,8 +7743,11 @@
       <c r="C234" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="235" spans="1:6">
+      <c r="G234" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
       <c r="A235">
         <v>7024</v>
       </c>
@@ -5615,8 +7763,11 @@
       <c r="F235" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:6">
+      <c r="G235" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
       <c r="A236">
         <v>31146</v>
       </c>
@@ -5626,8 +7777,11 @@
       <c r="F236" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:6">
+      <c r="G236" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
       <c r="A237">
         <v>200136</v>
       </c>
@@ -5637,8 +7791,11 @@
       <c r="F237" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:6">
+      <c r="G237" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
       <c r="A238">
         <v>31162</v>
       </c>
@@ -5648,8 +7805,11 @@
       <c r="F238" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:6">
+      <c r="G238" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
       <c r="A239">
         <v>2068</v>
       </c>
@@ -5659,8 +7819,11 @@
       <c r="F239" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="1:6">
+      <c r="G239" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
       <c r="A240">
         <v>2573</v>
       </c>
@@ -5673,8 +7836,11 @@
       <c r="F240" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:6">
+      <c r="G240" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
       <c r="A241">
         <v>32144</v>
       </c>
@@ -5684,8 +7850,11 @@
       <c r="F241" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:6">
+      <c r="G241" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
       <c r="A242">
         <v>2249</v>
       </c>
@@ -5695,8 +7864,11 @@
       <c r="F242" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="243" spans="1:6">
+      <c r="G242" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
       <c r="A243">
         <v>2248</v>
       </c>
@@ -5706,8 +7878,11 @@
       <c r="F243" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="1:6">
+      <c r="G243" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
       <c r="A244">
         <v>100770</v>
       </c>
@@ -5717,8 +7892,11 @@
       <c r="F244" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:6">
+      <c r="G244" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
       <c r="A245">
         <v>30897</v>
       </c>
@@ -5728,8 +7906,11 @@
       <c r="E245" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:6">
+      <c r="G245" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
       <c r="A246">
         <v>410204</v>
       </c>
@@ -5739,8 +7920,11 @@
       <c r="E246" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="1:6">
+      <c r="G246" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
       <c r="A247">
         <v>5202</v>
       </c>
@@ -5750,8 +7934,11 @@
       <c r="E247" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:6">
+      <c r="G247" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
       <c r="A248">
         <v>31123</v>
       </c>
@@ -5761,8 +7948,11 @@
       <c r="C248" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="249" spans="1:6">
+      <c r="G248" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
       <c r="A249">
         <v>5215</v>
       </c>
@@ -5772,8 +7962,11 @@
       <c r="D249" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:6">
+      <c r="G249" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
       <c r="A250">
         <v>5249</v>
       </c>
@@ -5786,8 +7979,11 @@
       <c r="D250" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:6">
+      <c r="G250" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
       <c r="A251">
         <v>5244</v>
       </c>
@@ -5800,8 +7996,11 @@
       <c r="D251" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="252" spans="1:6">
+      <c r="G251" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
       <c r="A252">
         <v>32043</v>
       </c>
@@ -5811,8 +8010,11 @@
       <c r="F252" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="253" spans="1:6">
+      <c r="G252" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
       <c r="A253">
         <v>25181</v>
       </c>
@@ -5822,8 +8024,11 @@
       <c r="D253" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:6">
+      <c r="G253" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
       <c r="A254">
         <v>6564</v>
       </c>
@@ -5836,8 +8041,11 @@
       <c r="F254" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="255" spans="1:6">
+      <c r="G254" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
       <c r="A255">
         <v>1433</v>
       </c>
@@ -5850,8 +8058,11 @@
       <c r="F255" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="256" spans="1:6">
+      <c r="G255" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
       <c r="A256">
         <v>6268</v>
       </c>
@@ -5863,6 +8074,9 @@
       </c>
       <c r="F256" s="1">
         <v>1</v>
+      </c>
+      <c r="G256" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -5875,6 +8089,9 @@
       <c r="D257" s="1">
         <v>1</v>
       </c>
+      <c r="G257" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="258" spans="1:9">
       <c r="A258">
@@ -5886,6 +8103,9 @@
       <c r="D258" s="1">
         <v>1</v>
       </c>
+      <c r="G258" t="s">
+        <v>746</v>
+      </c>
     </row>
     <row r="259" spans="1:9">
       <c r="A259">
@@ -5897,6 +8117,9 @@
       <c r="E259" s="1">
         <v>1</v>
       </c>
+      <c r="G259" t="s">
+        <v>747</v>
+      </c>
     </row>
     <row r="260" spans="1:9">
       <c r="A260">
@@ -5911,6 +8134,9 @@
       <c r="F260" s="1">
         <v>1</v>
       </c>
+      <c r="G260" t="s">
+        <v>748</v>
+      </c>
     </row>
     <row r="261" spans="1:9">
       <c r="A261">
@@ -5925,6 +8151,9 @@
       <c r="F261" s="1">
         <v>1</v>
       </c>
+      <c r="G261" t="s">
+        <v>749</v>
+      </c>
     </row>
     <row r="262" spans="1:9">
       <c r="A262">
@@ -5939,6 +8168,9 @@
       <c r="F262" s="1">
         <v>1</v>
       </c>
+      <c r="G262" t="s">
+        <v>750</v>
+      </c>
     </row>
     <row r="263" spans="1:9">
       <c r="A263">
@@ -5953,8 +8185,11 @@
       <c r="F263" s="1">
         <v>1</v>
       </c>
+      <c r="G263" t="s">
+        <v>751</v>
+      </c>
       <c r="I263" t="s">
-        <v>498</v>
+        <v>982</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -5970,6 +8205,9 @@
       <c r="F264" s="1">
         <v>1</v>
       </c>
+      <c r="G264" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="265" spans="1:9">
       <c r="A265">
@@ -5984,6 +8222,9 @@
       <c r="F265" s="1">
         <v>1</v>
       </c>
+      <c r="G265" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="266" spans="1:9">
       <c r="A266">
@@ -5995,6 +8236,9 @@
       <c r="E266" s="1">
         <v>1</v>
       </c>
+      <c r="G266" t="s">
+        <v>754</v>
+      </c>
     </row>
     <row r="267" spans="1:9">
       <c r="A267">
@@ -6009,6 +8253,9 @@
       <c r="F267" s="1">
         <v>1</v>
       </c>
+      <c r="G267" t="s">
+        <v>755</v>
+      </c>
     </row>
     <row r="268" spans="1:9">
       <c r="A268">
@@ -6020,6 +8267,9 @@
       <c r="E268" s="1">
         <v>1</v>
       </c>
+      <c r="G268" t="s">
+        <v>756</v>
+      </c>
     </row>
     <row r="269" spans="1:9">
       <c r="A269">
@@ -6034,6 +8284,9 @@
       <c r="D269" s="1">
         <v>1</v>
       </c>
+      <c r="G269" t="s">
+        <v>757</v>
+      </c>
     </row>
     <row r="270" spans="1:9">
       <c r="A270">
@@ -6045,6 +8298,9 @@
       <c r="C270" s="1">
         <v>1</v>
       </c>
+      <c r="G270" t="s">
+        <v>758</v>
+      </c>
     </row>
     <row r="271" spans="1:9">
       <c r="A271">
@@ -6056,6 +8312,9 @@
       <c r="C271" s="1">
         <v>1</v>
       </c>
+      <c r="G271" t="s">
+        <v>759</v>
+      </c>
     </row>
     <row r="272" spans="1:9">
       <c r="A272">
@@ -6073,6 +8332,9 @@
       <c r="F272" s="1">
         <v>1</v>
       </c>
+      <c r="G272" t="s">
+        <v>760</v>
+      </c>
     </row>
     <row r="273" spans="1:9">
       <c r="A273">
@@ -6084,6 +8346,9 @@
       <c r="F273" s="1">
         <v>1</v>
       </c>
+      <c r="G273" t="s">
+        <v>761</v>
+      </c>
     </row>
     <row r="274" spans="1:9">
       <c r="A274">
@@ -6095,6 +8360,9 @@
       <c r="F274" s="1">
         <v>1</v>
       </c>
+      <c r="G274" t="s">
+        <v>762</v>
+      </c>
     </row>
     <row r="275" spans="1:9">
       <c r="A275">
@@ -6112,8 +8380,11 @@
       <c r="F275" s="1">
         <v>1</v>
       </c>
+      <c r="G275" t="s">
+        <v>763</v>
+      </c>
       <c r="I275" t="s">
-        <v>499</v>
+        <v>983</v>
       </c>
     </row>
     <row r="276" spans="1:9">
@@ -6132,6 +8403,9 @@
       <c r="F276" s="1">
         <v>1</v>
       </c>
+      <c r="G276" t="s">
+        <v>764</v>
+      </c>
     </row>
     <row r="277" spans="1:9">
       <c r="A277">
@@ -6146,6 +8420,9 @@
       <c r="F277" s="1">
         <v>1</v>
       </c>
+      <c r="G277" t="s">
+        <v>765</v>
+      </c>
     </row>
     <row r="278" spans="1:9">
       <c r="A278">
@@ -6163,6 +8440,9 @@
       <c r="F278" s="1">
         <v>1</v>
       </c>
+      <c r="G278" t="s">
+        <v>766</v>
+      </c>
     </row>
     <row r="279" spans="1:9">
       <c r="A279">
@@ -6180,6 +8460,9 @@
       <c r="F279" s="1">
         <v>1</v>
       </c>
+      <c r="G279" t="s">
+        <v>767</v>
+      </c>
     </row>
     <row r="280" spans="1:9">
       <c r="A280">
@@ -6191,6 +8474,9 @@
       <c r="F280" s="1">
         <v>1</v>
       </c>
+      <c r="G280" t="s">
+        <v>768</v>
+      </c>
     </row>
     <row r="281" spans="1:9">
       <c r="A281">
@@ -6205,6 +8491,9 @@
       <c r="F281" s="1">
         <v>1</v>
       </c>
+      <c r="G281" t="s">
+        <v>769</v>
+      </c>
     </row>
     <row r="282" spans="1:9">
       <c r="A282">
@@ -6219,6 +8508,9 @@
       <c r="F282" s="1">
         <v>1</v>
       </c>
+      <c r="G282" t="s">
+        <v>770</v>
+      </c>
     </row>
     <row r="283" spans="1:9">
       <c r="A283">
@@ -6233,6 +8525,9 @@
       <c r="F283" s="1">
         <v>1</v>
       </c>
+      <c r="G283" t="s">
+        <v>771</v>
+      </c>
     </row>
     <row r="284" spans="1:9">
       <c r="A284">
@@ -6247,6 +8542,9 @@
       <c r="F284" s="1">
         <v>1</v>
       </c>
+      <c r="G284" t="s">
+        <v>772</v>
+      </c>
     </row>
     <row r="285" spans="1:9">
       <c r="A285">
@@ -6261,6 +8559,9 @@
       <c r="F285" s="1">
         <v>1</v>
       </c>
+      <c r="G285" t="s">
+        <v>773</v>
+      </c>
     </row>
     <row r="286" spans="1:9">
       <c r="A286">
@@ -6275,6 +8576,9 @@
       <c r="F286" s="1">
         <v>1</v>
       </c>
+      <c r="G286" t="s">
+        <v>774</v>
+      </c>
     </row>
     <row r="287" spans="1:9">
       <c r="A287">
@@ -6289,6 +8593,9 @@
       <c r="F287" s="1">
         <v>1</v>
       </c>
+      <c r="G287" t="s">
+        <v>775</v>
+      </c>
     </row>
     <row r="288" spans="1:9">
       <c r="A288">
@@ -6303,8 +8610,11 @@
       <c r="F288" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="289" spans="1:6">
+      <c r="G288" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
       <c r="A289">
         <v>2033</v>
       </c>
@@ -6317,8 +8627,11 @@
       <c r="F289" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="290" spans="1:6">
+      <c r="G289" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
       <c r="A290">
         <v>11470</v>
       </c>
@@ -6331,8 +8644,11 @@
       <c r="F290" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="291" spans="1:6">
+      <c r="G290" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
       <c r="A291">
         <v>11471</v>
       </c>
@@ -6345,8 +8661,11 @@
       <c r="F291" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="292" spans="1:6">
+      <c r="G291" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
       <c r="A292">
         <v>12381</v>
       </c>
@@ -6359,8 +8678,11 @@
       <c r="F292" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="293" spans="1:6">
+      <c r="G292" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
       <c r="A293">
         <v>40288</v>
       </c>
@@ -6373,8 +8695,11 @@
       <c r="F293" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="1:6">
+      <c r="G293" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
       <c r="A294">
         <v>4396</v>
       </c>
@@ -6387,8 +8712,11 @@
       <c r="F294" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="295" spans="1:6">
+      <c r="G294" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
       <c r="A295">
         <v>33842</v>
       </c>
@@ -6401,8 +8729,11 @@
       <c r="F295" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="296" spans="1:6">
+      <c r="G295" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
       <c r="A296">
         <v>2039</v>
       </c>
@@ -6415,8 +8746,11 @@
       <c r="F296" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="1:6">
+      <c r="G296" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
       <c r="A297">
         <v>1538</v>
       </c>
@@ -6429,8 +8763,11 @@
       <c r="F297" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="298" spans="1:6">
+      <c r="G297" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
       <c r="A298">
         <v>2041</v>
       </c>
@@ -6446,8 +8783,11 @@
       <c r="F298" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="299" spans="1:6">
+      <c r="G298" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
       <c r="A299">
         <v>2028</v>
       </c>
@@ -6463,8 +8803,11 @@
       <c r="F299" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="300" spans="1:6">
+      <c r="G299" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
       <c r="A300">
         <v>5208</v>
       </c>
@@ -6480,8 +8823,11 @@
       <c r="F300" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="301" spans="1:6">
+      <c r="G300" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
       <c r="A301">
         <v>25086</v>
       </c>
@@ -6497,8 +8843,11 @@
       <c r="F301" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="302" spans="1:6">
+      <c r="G301" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
       <c r="A302">
         <v>2254</v>
       </c>
@@ -6514,8 +8863,11 @@
       <c r="F302" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="303" spans="1:6">
+      <c r="G302" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
       <c r="A303">
         <v>33310</v>
       </c>
@@ -6531,8 +8883,11 @@
       <c r="F303" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="304" spans="1:6">
+      <c r="G303" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
       <c r="A304">
         <v>33343</v>
       </c>
@@ -6548,8 +8903,11 @@
       <c r="F304" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="305" spans="1:6">
+      <c r="G304" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
       <c r="A305">
         <v>4385</v>
       </c>
@@ -6565,8 +8923,11 @@
       <c r="F305" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="306" spans="1:6">
+      <c r="G305" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
       <c r="A306">
         <v>32545</v>
       </c>
@@ -6579,8 +8940,11 @@
       <c r="F306" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="1:6">
+      <c r="G306" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
       <c r="A307">
         <v>32155</v>
       </c>
@@ -6593,8 +8957,11 @@
       <c r="F307" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="308" spans="1:6">
+      <c r="G307" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
       <c r="A308">
         <v>410281</v>
       </c>
@@ -6607,8 +8974,11 @@
       <c r="F308" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="309" spans="1:6">
+      <c r="G308" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
       <c r="A309">
         <v>11848</v>
       </c>
@@ -6621,8 +8991,11 @@
       <c r="F309" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="310" spans="1:6">
+      <c r="G309" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
       <c r="A310">
         <v>32546</v>
       </c>
@@ -6635,8 +9008,11 @@
       <c r="F310" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="311" spans="1:6">
+      <c r="G310" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
       <c r="A311">
         <v>2574</v>
       </c>
@@ -6649,8 +9025,11 @@
       <c r="F311" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="312" spans="1:6">
+      <c r="G311" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
       <c r="A312">
         <v>33400</v>
       </c>
@@ -6663,8 +9042,11 @@
       <c r="F312" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="313" spans="1:6">
+      <c r="G312" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
       <c r="A313">
         <v>4395</v>
       </c>
@@ -6677,8 +9059,11 @@
       <c r="F313" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="314" spans="1:6">
+      <c r="G313" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
       <c r="A314">
         <v>30143</v>
       </c>
@@ -6691,8 +9076,11 @@
       <c r="F314" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="315" spans="1:6">
+      <c r="G314" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
       <c r="A315">
         <v>30144</v>
       </c>
@@ -6705,8 +9093,11 @@
       <c r="F315" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="316" spans="1:6">
+      <c r="G315" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
       <c r="A316">
         <v>30145</v>
       </c>
@@ -6719,8 +9110,11 @@
       <c r="F316" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="317" spans="1:6">
+      <c r="G316" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
       <c r="A317">
         <v>2038</v>
       </c>
@@ -6733,8 +9127,11 @@
       <c r="F317" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="318" spans="1:6">
+      <c r="G317" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
       <c r="A318">
         <v>1971</v>
       </c>
@@ -6747,8 +9144,11 @@
       <c r="F318" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="319" spans="1:6">
+      <c r="G318" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
       <c r="A319">
         <v>6270</v>
       </c>
@@ -6761,8 +9161,11 @@
       <c r="F319" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="320" spans="1:6">
+      <c r="G319" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
       <c r="A320">
         <v>1746</v>
       </c>
@@ -6775,8 +9178,11 @@
       <c r="F320" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="321" spans="1:5">
+      <c r="G320" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
       <c r="A321">
         <v>25060</v>
       </c>
@@ -6789,8 +9195,11 @@
       <c r="E321" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="322" spans="1:5">
+      <c r="G321" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
       <c r="A322">
         <v>25061</v>
       </c>
@@ -6803,8 +9212,11 @@
       <c r="E322" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="323" spans="1:5">
+      <c r="G322" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
       <c r="A323">
         <v>10452</v>
       </c>
@@ -6817,8 +9229,11 @@
       <c r="E323" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="324" spans="1:5">
+      <c r="G323" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
       <c r="A324">
         <v>32075</v>
       </c>
@@ -6831,8 +9246,11 @@
       <c r="E324" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="325" spans="1:5">
+      <c r="G324" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
       <c r="A325">
         <v>20186</v>
       </c>
@@ -6845,8 +9263,11 @@
       <c r="E325" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="326" spans="1:5">
+      <c r="G325" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
       <c r="A326">
         <v>25410</v>
       </c>
@@ -6859,8 +9280,11 @@
       <c r="E326" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="327" spans="1:5">
+      <c r="G326" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
       <c r="A327">
         <v>34336</v>
       </c>
@@ -6876,8 +9300,11 @@
       <c r="E327" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="328" spans="1:5">
+      <c r="G327" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
       <c r="A328">
         <v>1747</v>
       </c>
@@ -6890,8 +9317,11 @@
       <c r="E328" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="329" spans="1:5">
+      <c r="G328" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
       <c r="A329">
         <v>1748</v>
       </c>
@@ -6904,8 +9334,11 @@
       <c r="E329" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="330" spans="1:5">
+      <c r="G329" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
       <c r="A330">
         <v>30423</v>
       </c>
@@ -6918,8 +9351,11 @@
       <c r="D330" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="331" spans="1:5">
+      <c r="G330" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
       <c r="A331">
         <v>12223</v>
       </c>
@@ -6932,8 +9368,11 @@
       <c r="D331" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="332" spans="1:5">
+      <c r="G331" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
       <c r="A332">
         <v>3363</v>
       </c>
@@ -6946,8 +9385,11 @@
       <c r="D332" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="333" spans="1:5">
+      <c r="G332" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
       <c r="A333">
         <v>31565</v>
       </c>
@@ -6961,7 +9403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:7">
       <c r="A334">
         <v>30452</v>
       </c>
@@ -6974,8 +9416,11 @@
       <c r="D334" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="335" spans="1:5">
+      <c r="G334" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
       <c r="A335">
         <v>100003</v>
       </c>
@@ -6985,8 +9430,11 @@
       <c r="C335" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="336" spans="1:5">
+      <c r="G335" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
       <c r="A336">
         <v>6575</v>
       </c>
@@ -6999,8 +9447,11 @@
       <c r="D336" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="337" spans="1:5">
+      <c r="G336" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
       <c r="A337">
         <v>1407</v>
       </c>
@@ -7010,8 +9461,11 @@
       <c r="C337" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="338" spans="1:5">
+      <c r="G337" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
       <c r="A338">
         <v>6557</v>
       </c>
@@ -7021,8 +9475,11 @@
       <c r="C338" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="339" spans="1:5">
+      <c r="G338" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
       <c r="A339">
         <v>200122</v>
       </c>
@@ -7032,8 +9489,11 @@
       <c r="C339" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="340" spans="1:5">
+      <c r="G339" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
       <c r="A340">
         <v>200084</v>
       </c>
@@ -7043,8 +9503,11 @@
       <c r="C340" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="341" spans="1:5">
+      <c r="G340" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
       <c r="A341">
         <v>200119</v>
       </c>
@@ -7054,8 +9517,11 @@
       <c r="C341" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="342" spans="1:5">
+      <c r="G341" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7">
       <c r="A342">
         <v>32220</v>
       </c>
@@ -7065,8 +9531,11 @@
       <c r="C342" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="343" spans="1:5">
+      <c r="G342" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
       <c r="A343">
         <v>6572</v>
       </c>
@@ -7076,8 +9545,11 @@
       <c r="C343" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="344" spans="1:5">
+      <c r="G343" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7">
       <c r="A344">
         <v>1412</v>
       </c>
@@ -7087,8 +9559,11 @@
       <c r="C344" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="345" spans="1:5">
+      <c r="G344" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
       <c r="A345">
         <v>200120</v>
       </c>
@@ -7098,8 +9573,11 @@
       <c r="C345" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="346" spans="1:5">
+      <c r="G345" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
       <c r="A346">
         <v>200124</v>
       </c>
@@ -7109,8 +9587,11 @@
       <c r="C346" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="347" spans="1:5">
+      <c r="G346" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
       <c r="A347">
         <v>31141</v>
       </c>
@@ -7120,8 +9601,11 @@
       <c r="E347" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="348" spans="1:5">
+      <c r="G347" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
       <c r="A348">
         <v>31143</v>
       </c>
@@ -7131,8 +9615,11 @@
       <c r="E348" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="349" spans="1:5">
+      <c r="G348" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
       <c r="A349">
         <v>31144</v>
       </c>
@@ -7142,8 +9629,11 @@
       <c r="E349" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="350" spans="1:5">
+      <c r="G349" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
       <c r="A350">
         <v>31145</v>
       </c>
@@ -7153,8 +9643,11 @@
       <c r="E350" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="351" spans="1:5">
+      <c r="G350" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
       <c r="A351">
         <v>6565</v>
       </c>
@@ -7164,8 +9657,11 @@
       <c r="E351" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="352" spans="1:5">
+      <c r="G351" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
       <c r="A352">
         <v>1414</v>
       </c>
@@ -7181,8 +9677,11 @@
       <c r="E352" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="353" spans="1:5">
+      <c r="G352" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7">
       <c r="A353">
         <v>1403</v>
       </c>
@@ -7198,8 +9697,11 @@
       <c r="E353" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="354" spans="1:5">
+      <c r="G353" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7">
       <c r="A354">
         <v>6573</v>
       </c>
@@ -7215,8 +9717,11 @@
       <c r="E354" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="355" spans="1:5">
+      <c r="G354" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7">
       <c r="A355">
         <v>6555</v>
       </c>
@@ -7232,8 +9737,11 @@
       <c r="E355" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="356" spans="1:5">
+      <c r="G355" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7">
       <c r="A356">
         <v>5237</v>
       </c>
@@ -7246,8 +9754,11 @@
       <c r="D356" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="357" spans="1:5">
+      <c r="G356" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7">
       <c r="A357">
         <v>45061</v>
       </c>
@@ -7257,8 +9768,11 @@
       <c r="E357" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="358" spans="1:5">
+      <c r="G357" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7">
       <c r="A358">
         <v>100839</v>
       </c>
@@ -7271,8 +9785,11 @@
       <c r="D358" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="359" spans="1:5">
+      <c r="G358" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7">
       <c r="A359">
         <v>34182</v>
       </c>
@@ -7282,8 +9799,11 @@
       <c r="D359" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="360" spans="1:5">
+      <c r="G359" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7">
       <c r="A360">
         <v>30722</v>
       </c>
@@ -7293,8 +9813,11 @@
       <c r="D360" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="361" spans="1:5">
+      <c r="G360" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7">
       <c r="A361">
         <v>6581</v>
       </c>
@@ -7304,8 +9827,11 @@
       <c r="E361" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="362" spans="1:5">
+      <c r="G361" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7">
       <c r="A362">
         <v>11954</v>
       </c>
@@ -7318,8 +9844,11 @@
       <c r="E362" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="363" spans="1:5">
+      <c r="G362" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7">
       <c r="A363">
         <v>33135</v>
       </c>
@@ -7332,8 +9861,11 @@
       <c r="D363" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="364" spans="1:5">
+      <c r="G363" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7">
       <c r="A364">
         <v>100752</v>
       </c>
@@ -7346,8 +9878,11 @@
       <c r="E364" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="365" spans="1:5">
+      <c r="G364" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7">
       <c r="A365">
         <v>33193</v>
       </c>
@@ -7360,8 +9895,11 @@
       <c r="E365" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="366" spans="1:5">
+      <c r="G365" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7">
       <c r="A366">
         <v>33197</v>
       </c>
@@ -7374,8 +9912,11 @@
       <c r="E366" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="367" spans="1:5">
+      <c r="G366" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7">
       <c r="A367">
         <v>32221</v>
       </c>
@@ -7388,8 +9929,11 @@
       <c r="E367" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="368" spans="1:5">
+      <c r="G367" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7">
       <c r="A368">
         <v>2614</v>
       </c>
@@ -7402,8 +9946,11 @@
       <c r="E368" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="369" spans="1:5">
+      <c r="G368" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7">
       <c r="A369">
         <v>1404</v>
       </c>
@@ -7416,8 +9963,11 @@
       <c r="E369" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="370" spans="1:5">
+      <c r="G369" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7">
       <c r="A370">
         <v>11955</v>
       </c>
@@ -7430,8 +9980,11 @@
       <c r="D370" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="371" spans="1:5">
+      <c r="G370" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7">
       <c r="A371">
         <v>12465</v>
       </c>
@@ -7444,8 +9997,11 @@
       <c r="E371" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="372" spans="1:5">
+      <c r="G371" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7">
       <c r="A372">
         <v>12852</v>
       </c>
@@ -7461,8 +10017,11 @@
       <c r="E372" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="373" spans="1:5">
+      <c r="G372" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7">
       <c r="A373">
         <v>1405</v>
       </c>
@@ -7478,8 +10037,11 @@
       <c r="E373" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="374" spans="1:5">
+      <c r="G373" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7">
       <c r="A374">
         <v>2612</v>
       </c>
@@ -7495,8 +10057,11 @@
       <c r="E374" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="375" spans="1:5">
+      <c r="G374" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7">
       <c r="A375">
         <v>34188</v>
       </c>
@@ -7509,8 +10074,11 @@
       <c r="E375" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="376" spans="1:5">
+      <c r="G375" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7">
       <c r="A376">
         <v>100523</v>
       </c>
@@ -7523,8 +10091,11 @@
       <c r="D376" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="377" spans="1:5">
+      <c r="G376" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7">
       <c r="A377">
         <v>6568</v>
       </c>
@@ -7534,8 +10105,11 @@
       <c r="E377" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="378" spans="1:5">
+      <c r="G377" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7">
       <c r="A378">
         <v>410259</v>
       </c>
@@ -7548,8 +10122,11 @@
       <c r="D378" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="379" spans="1:5">
+      <c r="G378" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7">
       <c r="A379">
         <v>1413</v>
       </c>
@@ -7562,8 +10139,11 @@
       <c r="D379" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="380" spans="1:5">
+      <c r="G379" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7">
       <c r="A380">
         <v>11005</v>
       </c>
@@ -7576,8 +10156,11 @@
       <c r="D380" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="381" spans="1:5">
+      <c r="G380" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7">
       <c r="A381">
         <v>6577</v>
       </c>
@@ -7590,8 +10173,11 @@
       <c r="D381" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="382" spans="1:5">
+      <c r="G381" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7">
       <c r="A382">
         <v>6574</v>
       </c>
@@ -7604,8 +10190,11 @@
       <c r="D382" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="383" spans="1:5">
+      <c r="G382" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7">
       <c r="A383">
         <v>4941</v>
       </c>
@@ -7618,8 +10207,11 @@
       <c r="D383" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="384" spans="1:5">
+      <c r="G383" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7">
       <c r="A384">
         <v>31015</v>
       </c>
@@ -7632,8 +10224,11 @@
       <c r="D384" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="385" spans="1:4">
+      <c r="G384" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7">
       <c r="A385">
         <v>31942</v>
       </c>
@@ -7646,8 +10241,11 @@
       <c r="D385" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="386" spans="1:4">
+      <c r="G385" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7">
       <c r="A386">
         <v>5201</v>
       </c>
@@ -7660,8 +10258,11 @@
       <c r="D386" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="387" spans="1:4">
+      <c r="G386" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7">
       <c r="A387">
         <v>6576</v>
       </c>
@@ -7674,8 +10275,11 @@
       <c r="D387" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="388" spans="1:4">
+      <c r="G387" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7">
       <c r="A388">
         <v>32181</v>
       </c>
@@ -7685,8 +10289,11 @@
       <c r="D388" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="389" spans="1:4">
+      <c r="G388" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7">
       <c r="A389">
         <v>4000148</v>
       </c>
@@ -7696,8 +10303,11 @@
       <c r="D389" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="390" spans="1:4">
+      <c r="G389" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7">
       <c r="A390">
         <v>6559</v>
       </c>
@@ -7707,8 +10317,11 @@
       <c r="D390" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="391" spans="1:4">
+      <c r="G390" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7">
       <c r="A391">
         <v>12280</v>
       </c>
@@ -7721,8 +10334,11 @@
       <c r="D391" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="392" spans="1:4">
+      <c r="G391" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7">
       <c r="A392">
         <v>6566</v>
       </c>
@@ -7735,8 +10351,11 @@
       <c r="D392" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="393" spans="1:4">
+      <c r="G392" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7">
       <c r="A393">
         <v>1046</v>
       </c>
@@ -7749,8 +10368,11 @@
       <c r="D393" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="394" spans="1:4">
+      <c r="G393" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7">
       <c r="A394">
         <v>6579</v>
       </c>
@@ -7763,8 +10385,11 @@
       <c r="D394" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="395" spans="1:4">
+      <c r="G394" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7">
       <c r="A395">
         <v>12334</v>
       </c>
@@ -7777,8 +10402,11 @@
       <c r="D395" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="396" spans="1:4">
+      <c r="G395" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7">
       <c r="A396">
         <v>11985</v>
       </c>
@@ -7791,8 +10419,11 @@
       <c r="D396" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="397" spans="1:4">
+      <c r="G396" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7">
       <c r="A397">
         <v>6580</v>
       </c>
@@ -7805,8 +10436,11 @@
       <c r="D397" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="398" spans="1:4">
+      <c r="G397" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7">
       <c r="A398">
         <v>1082</v>
       </c>
@@ -7819,8 +10453,11 @@
       <c r="D398" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="399" spans="1:4">
+      <c r="G398" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7">
       <c r="A399">
         <v>5609</v>
       </c>
@@ -7833,8 +10470,11 @@
       <c r="D399" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="400" spans="1:4">
+      <c r="G399" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7">
       <c r="A400">
         <v>11980</v>
       </c>
@@ -7847,8 +10487,11 @@
       <c r="D400" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="401" spans="1:5">
+      <c r="G400" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7">
       <c r="A401">
         <v>11982</v>
       </c>
@@ -7861,8 +10504,11 @@
       <c r="D401" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="402" spans="1:5">
+      <c r="G401" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7">
       <c r="A402">
         <v>11983</v>
       </c>
@@ -7875,8 +10521,11 @@
       <c r="D402" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="403" spans="1:5">
+      <c r="G402" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7">
       <c r="A403">
         <v>34506</v>
       </c>
@@ -7889,8 +10538,11 @@
       <c r="E403" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="404" spans="1:5">
+      <c r="G403" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7">
       <c r="A404">
         <v>5608</v>
       </c>
@@ -7903,8 +10555,11 @@
       <c r="E404" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="405" spans="1:5">
+      <c r="G404" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7">
       <c r="A405">
         <v>30170</v>
       </c>
@@ -7917,8 +10572,11 @@
       <c r="E405" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="406" spans="1:5">
+      <c r="G405" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7">
       <c r="A406">
         <v>34505</v>
       </c>
@@ -7931,8 +10589,11 @@
       <c r="E406" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="407" spans="1:5">
+      <c r="G406" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7">
       <c r="A407">
         <v>34507</v>
       </c>
@@ -7945,8 +10606,11 @@
       <c r="E407" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="408" spans="1:5">
+      <c r="G407" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7">
       <c r="A408">
         <v>11984</v>
       </c>
@@ -7959,8 +10623,11 @@
       <c r="E408" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="409" spans="1:5">
+      <c r="G408" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7">
       <c r="A409">
         <v>11467</v>
       </c>
@@ -7973,8 +10640,11 @@
       <c r="D409" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="410" spans="1:5">
+      <c r="G409" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7">
       <c r="A410">
         <v>5233</v>
       </c>
@@ -7987,8 +10657,11 @@
       <c r="D410" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="411" spans="1:5">
+      <c r="G410" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7">
       <c r="A411">
         <v>30154</v>
       </c>
@@ -8001,8 +10674,11 @@
       <c r="D411" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="412" spans="1:5">
+      <c r="G411" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7">
       <c r="A412">
         <v>33196</v>
       </c>
@@ -8015,8 +10691,11 @@
       <c r="D412" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="413" spans="1:5">
+      <c r="G412" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7">
       <c r="A413">
         <v>6563</v>
       </c>
@@ -8029,8 +10708,11 @@
       <c r="D413" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="414" spans="1:5">
+      <c r="G413" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7">
       <c r="A414">
         <v>5209</v>
       </c>
@@ -8043,8 +10725,11 @@
       <c r="D414" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="415" spans="1:5">
+      <c r="G414" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7">
       <c r="A415">
         <v>34328</v>
       </c>
@@ -8057,8 +10742,11 @@
       <c r="D415" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="416" spans="1:5">
+      <c r="G415" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7">
       <c r="A416">
         <v>5248</v>
       </c>
@@ -8071,8 +10759,11 @@
       <c r="D416" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="417" spans="1:5">
+      <c r="G416" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7">
       <c r="A417">
         <v>25344</v>
       </c>
@@ -8085,8 +10776,11 @@
       <c r="E417" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="418" spans="1:5">
+      <c r="G417" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7">
       <c r="A418">
         <v>33149</v>
       </c>
@@ -8099,8 +10793,11 @@
       <c r="E418" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="419" spans="1:5">
+      <c r="G418" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7">
       <c r="A419">
         <v>6571</v>
       </c>
@@ -8113,8 +10810,11 @@
       <c r="E419" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="420" spans="1:5">
+      <c r="G419" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7">
       <c r="A420">
         <v>1401</v>
       </c>
@@ -8127,8 +10827,11 @@
       <c r="E420" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="421" spans="1:5">
+      <c r="G420" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7">
       <c r="A421">
         <v>30990</v>
       </c>
@@ -8141,8 +10844,11 @@
       <c r="E421" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="422" spans="1:5">
+      <c r="G421" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7">
       <c r="A422">
         <v>30988</v>
       </c>
@@ -8155,8 +10861,11 @@
       <c r="E422" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="423" spans="1:5">
+      <c r="G422" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7">
       <c r="A423">
         <v>30989</v>
       </c>
@@ -8169,8 +10878,11 @@
       <c r="E423" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="424" spans="1:5">
+      <c r="G423" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7">
       <c r="A424">
         <v>30987</v>
       </c>
@@ -8183,8 +10895,11 @@
       <c r="D424" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="425" spans="1:5">
+      <c r="G424" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7">
       <c r="A425">
         <v>30991</v>
       </c>
@@ -8197,8 +10912,11 @@
       <c r="D425" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="426" spans="1:5">
+      <c r="G425" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7">
       <c r="A426">
         <v>2613</v>
       </c>
@@ -8208,8 +10926,11 @@
       <c r="C426" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="427" spans="1:5">
+      <c r="G426" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7">
       <c r="A427">
         <v>5242</v>
       </c>
@@ -8219,8 +10940,11 @@
       <c r="C427" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="428" spans="1:5">
+      <c r="G427" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7">
       <c r="A428">
         <v>6560</v>
       </c>
@@ -8233,8 +10957,11 @@
       <c r="D428" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="429" spans="1:5">
+      <c r="G428" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7">
       <c r="A429">
         <v>5230</v>
       </c>
@@ -8247,8 +10974,11 @@
       <c r="D429" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="430" spans="1:5">
+      <c r="G429" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7">
       <c r="A430">
         <v>30986</v>
       </c>
@@ -8258,8 +10988,11 @@
       <c r="D430" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="431" spans="1:5">
+      <c r="G430" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7">
       <c r="A431">
         <v>1408</v>
       </c>
@@ -8269,8 +11002,11 @@
       <c r="D431" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="432" spans="1:5">
+      <c r="G431" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7">
       <c r="A432">
         <v>25154</v>
       </c>
@@ -8280,8 +11016,11 @@
       <c r="D432" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="433" spans="1:5">
+      <c r="G432" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7">
       <c r="A433">
         <v>34352</v>
       </c>
@@ -8294,8 +11033,11 @@
       <c r="D433" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="434" spans="1:5">
+      <c r="G433" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7">
       <c r="A434">
         <v>34294</v>
       </c>
@@ -8308,8 +11050,11 @@
       <c r="D434" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="435" spans="1:5">
+      <c r="G434" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7">
       <c r="A435">
         <v>100890</v>
       </c>
@@ -8322,8 +11067,11 @@
       <c r="D435" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="436" spans="1:5">
+      <c r="G435" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7">
       <c r="A436">
         <v>12441</v>
       </c>
@@ -8336,8 +11084,11 @@
       <c r="D436" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="437" spans="1:5">
+      <c r="G436" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7">
       <c r="A437">
         <v>12442</v>
       </c>
@@ -8350,8 +11101,11 @@
       <c r="D437" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="438" spans="1:5">
+      <c r="G437" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7">
       <c r="A438">
         <v>100762</v>
       </c>
@@ -8362,7 +11116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:5">
+    <row r="439" spans="1:7">
       <c r="A439">
         <v>6279</v>
       </c>
@@ -8375,8 +11129,11 @@
       <c r="E439" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="440" spans="1:5">
+      <c r="G439" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7">
       <c r="A440">
         <v>6274</v>
       </c>
@@ -8389,8 +11146,11 @@
       <c r="E440" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="441" spans="1:5">
+      <c r="G440" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7">
       <c r="A441">
         <v>8194</v>
       </c>
@@ -8400,8 +11160,11 @@
       <c r="C441" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="442" spans="1:5">
+      <c r="G441" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7">
       <c r="A442">
         <v>12197</v>
       </c>
@@ -8411,8 +11174,11 @@
       <c r="C442" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="443" spans="1:5">
+      <c r="G442" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7">
       <c r="A443">
         <v>31224</v>
       </c>
@@ -8422,8 +11188,11 @@
       <c r="D443" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="444" spans="1:5">
+      <c r="G443" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7">
       <c r="A444">
         <v>4000061</v>
       </c>
@@ -8433,8 +11202,11 @@
       <c r="D444" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="445" spans="1:5">
+      <c r="G444" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7">
       <c r="A445">
         <v>31223</v>
       </c>
@@ -8444,8 +11216,11 @@
       <c r="D445" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="446" spans="1:5">
+      <c r="G445" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7">
       <c r="A446">
         <v>1738</v>
       </c>
@@ -8455,8 +11230,11 @@
       <c r="D446" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="447" spans="1:5">
+      <c r="G446" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7">
       <c r="A447">
         <v>1735</v>
       </c>
@@ -8466,8 +11244,11 @@
       <c r="C447" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="448" spans="1:5">
+      <c r="G447" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7">
       <c r="A448">
         <v>6280</v>
       </c>
@@ -8477,8 +11258,11 @@
       <c r="C448" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="449" spans="1:4">
+      <c r="G448" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7">
       <c r="A449">
         <v>5236</v>
       </c>
@@ -8488,8 +11272,11 @@
       <c r="C449" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="450" spans="1:4">
+      <c r="G449" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7">
       <c r="A450">
         <v>100027</v>
       </c>
@@ -8499,8 +11286,11 @@
       <c r="C450" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="451" spans="1:4">
+      <c r="G450" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7">
       <c r="A451">
         <v>12142</v>
       </c>
@@ -8510,8 +11300,11 @@
       <c r="C451" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="452" spans="1:4">
+      <c r="G451" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7">
       <c r="A452">
         <v>100757</v>
       </c>
@@ -8521,8 +11314,11 @@
       <c r="C452" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="453" spans="1:4">
+      <c r="G452" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7">
       <c r="A453">
         <v>6725</v>
       </c>
@@ -8532,8 +11328,11 @@
       <c r="C453" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="454" spans="1:4">
+      <c r="G453" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7">
       <c r="A454">
         <v>5206</v>
       </c>
@@ -8543,8 +11342,11 @@
       <c r="C454" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="455" spans="1:4">
+      <c r="G454" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7">
       <c r="A455">
         <v>100732</v>
       </c>
@@ -8554,8 +11356,11 @@
       <c r="C455" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="456" spans="1:4">
+      <c r="G455" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7">
       <c r="A456">
         <v>5232</v>
       </c>
@@ -8565,8 +11370,11 @@
       <c r="D456" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="457" spans="1:4">
+      <c r="G456" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7">
       <c r="A457">
         <v>6277</v>
       </c>
@@ -8576,8 +11384,11 @@
       <c r="D457" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="458" spans="1:4">
+      <c r="G457" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7">
       <c r="A458">
         <v>2594</v>
       </c>
@@ -8587,8 +11398,11 @@
       <c r="D458" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="459" spans="1:4">
+      <c r="G458" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7">
       <c r="A459">
         <v>100801</v>
       </c>
@@ -8598,8 +11412,11 @@
       <c r="D459" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="460" spans="1:4">
+      <c r="G459" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7">
       <c r="A460">
         <v>30993</v>
       </c>
@@ -8612,8 +11429,11 @@
       <c r="D460" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="461" spans="1:4">
+      <c r="G460" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7">
       <c r="A461">
         <v>34346</v>
       </c>
@@ -8626,8 +11446,11 @@
       <c r="D461" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="462" spans="1:4">
+      <c r="G461" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7">
       <c r="A462">
         <v>1737</v>
       </c>
@@ -8640,8 +11463,11 @@
       <c r="D462" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="463" spans="1:4">
+      <c r="G462" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7">
       <c r="A463">
         <v>5213</v>
       </c>
@@ -8654,8 +11480,11 @@
       <c r="D463" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="464" spans="1:4">
+      <c r="G463" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7">
       <c r="A464">
         <v>6278</v>
       </c>
@@ -8668,8 +11497,11 @@
       <c r="D464" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="465" spans="1:6">
+      <c r="G464" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7">
       <c r="A465">
         <v>30994</v>
       </c>
@@ -8682,8 +11514,11 @@
       <c r="D465" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="466" spans="1:6">
+      <c r="G465" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7">
       <c r="A466">
         <v>6276</v>
       </c>
@@ -8699,8 +11534,11 @@
       <c r="E466" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="467" spans="1:6">
+      <c r="G466" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7">
       <c r="A467">
         <v>1734</v>
       </c>
@@ -8713,8 +11551,11 @@
       <c r="D467" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="468" spans="1:6">
+      <c r="G467" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7">
       <c r="A468">
         <v>6273</v>
       </c>
@@ -8727,8 +11568,11 @@
       <c r="D468" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="469" spans="1:6">
+      <c r="G468" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7">
       <c r="A469">
         <v>100844</v>
       </c>
@@ -8741,8 +11585,11 @@
       <c r="D469" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="470" spans="1:6">
+      <c r="G469" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7">
       <c r="A470">
         <v>33757</v>
       </c>
@@ -8755,8 +11602,11 @@
       <c r="D470" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="471" spans="1:6">
+      <c r="G470" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7">
       <c r="A471">
         <v>25079</v>
       </c>
@@ -8769,8 +11619,11 @@
       <c r="D471" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="472" spans="1:6">
+      <c r="G471" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7">
       <c r="A472">
         <v>30717</v>
       </c>
@@ -8783,8 +11636,11 @@
       <c r="D472" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="473" spans="1:6">
+      <c r="G472" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7">
       <c r="A473">
         <v>34477</v>
       </c>
@@ -8794,8 +11650,11 @@
       <c r="D473" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="474" spans="1:6">
+      <c r="G473" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7">
       <c r="A474">
         <v>5200</v>
       </c>
@@ -8805,8 +11664,11 @@
       <c r="C474" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="475" spans="1:6">
+      <c r="G474" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7">
       <c r="A475">
         <v>11854</v>
       </c>
@@ -8816,8 +11678,11 @@
       <c r="D475" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="476" spans="1:6">
+      <c r="G475" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7">
       <c r="A476">
         <v>34493</v>
       </c>
@@ -8830,8 +11695,11 @@
       <c r="D476" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="477" spans="1:6">
+      <c r="G476" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7">
       <c r="A477">
         <v>30995</v>
       </c>
@@ -8844,8 +11712,11 @@
       <c r="F477" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="478" spans="1:6">
+      <c r="G477" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7">
       <c r="A478">
         <v>34475</v>
       </c>
@@ -8855,8 +11726,11 @@
       <c r="E478" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="479" spans="1:6">
+      <c r="G478" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7">
       <c r="A479">
         <v>34472</v>
       </c>
@@ -8866,8 +11740,11 @@
       <c r="E479" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="480" spans="1:6">
+      <c r="G479" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7">
       <c r="A480">
         <v>33009</v>
       </c>
@@ -8877,8 +11754,11 @@
       <c r="E480" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="481" spans="1:5">
+      <c r="G480" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7">
       <c r="A481">
         <v>34474</v>
       </c>
@@ -8888,8 +11768,11 @@
       <c r="E481" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="482" spans="1:5">
+      <c r="G481" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7">
       <c r="A482">
         <v>33010</v>
       </c>
@@ -8899,8 +11782,11 @@
       <c r="E482" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="483" spans="1:5">
+      <c r="G482" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7">
       <c r="A483">
         <v>34473</v>
       </c>
@@ -8910,8 +11796,11 @@
       <c r="E483" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="484" spans="1:5">
+      <c r="G483" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7">
       <c r="A484">
         <v>31686</v>
       </c>
@@ -8921,8 +11810,11 @@
       <c r="E484" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="485" spans="1:5">
+      <c r="G484" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7">
       <c r="A485">
         <v>500115</v>
       </c>
@@ -8932,8 +11824,11 @@
       <c r="E485" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="486" spans="1:5">
+      <c r="G485" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7">
       <c r="A486">
         <v>34470</v>
       </c>
@@ -8943,8 +11838,11 @@
       <c r="E486" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="487" spans="1:5">
+      <c r="G486" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7">
       <c r="A487">
         <v>34471</v>
       </c>
@@ -8954,8 +11852,11 @@
       <c r="E487" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="488" spans="1:5">
+      <c r="G487" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7">
       <c r="A488">
         <v>34469</v>
       </c>
@@ -8965,8 +11866,11 @@
       <c r="E488" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="489" spans="1:5">
+      <c r="G488" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7">
       <c r="A489">
         <v>32484</v>
       </c>
@@ -8976,8 +11880,11 @@
       <c r="E489" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="490" spans="1:5">
+      <c r="G489" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7">
       <c r="A490">
         <v>32489</v>
       </c>
@@ -8987,8 +11894,11 @@
       <c r="E490" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="491" spans="1:5">
+      <c r="G490" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7">
       <c r="A491">
         <v>32490</v>
       </c>
@@ -8998,8 +11908,11 @@
       <c r="E491" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="492" spans="1:5">
+      <c r="G491" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7">
       <c r="A492">
         <v>34043</v>
       </c>
@@ -9009,8 +11922,11 @@
       <c r="E492" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="493" spans="1:5">
+      <c r="G492" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7">
       <c r="A493">
         <v>34283</v>
       </c>
@@ -9020,8 +11936,11 @@
       <c r="E493" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="494" spans="1:5">
+      <c r="G493" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7">
       <c r="A494">
         <v>34476</v>
       </c>
@@ -9031,8 +11950,11 @@
       <c r="E494" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="495" spans="1:5">
+      <c r="G494" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7">
       <c r="A495">
         <v>34056</v>
       </c>
@@ -9042,8 +11964,11 @@
       <c r="E495" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="496" spans="1:5">
+      <c r="G495" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7">
       <c r="A496">
         <v>32486</v>
       </c>
@@ -9053,8 +11978,11 @@
       <c r="E496" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="497" spans="1:5">
+      <c r="G496" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7">
       <c r="A497">
         <v>32487</v>
       </c>
@@ -9063,6 +11991,9 @@
       </c>
       <c r="E497" s="1">
         <v>1</v>
+      </c>
+      <c r="G497" t="s">
+        <v>981</v>
       </c>
     </row>
   </sheetData>
